--- a/JupyterNotebooks/AvgHW/GossF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>HKL</t>
   </si>
@@ -58,6 +58,18 @@
     <t>OffsetATD</t>
   </si>
   <si>
+    <t>Holden2.5</t>
+  </si>
+  <si>
+    <t>Holden5</t>
+  </si>
+  <si>
+    <t>Holden10</t>
+  </si>
+  <si>
+    <t>Holden15</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -70,28 +82,28 @@
     <t>HexGrid-90degTilt15degRes</t>
   </si>
   <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
+  </si>
+  <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +491,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +555,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +564,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,16 +626,16 @@
         <v>1</v>
       </c>
       <c r="C3">
+        <v>0.998417457385777</v>
+      </c>
+      <c r="D3">
+        <v>1.000475110494009</v>
+      </c>
+      <c r="E3">
         <v>1.000252584110811</v>
       </c>
-      <c r="D3">
+      <c r="F3">
         <v>0.998417457385777</v>
-      </c>
-      <c r="E3">
-        <v>1.000475110494009</v>
-      </c>
-      <c r="F3">
-        <v>1.000252584110811</v>
       </c>
       <c r="G3">
         <v>1.001309339523482</v>
@@ -692,10 +644,10 @@
         <v>0.999078105814253</v>
       </c>
       <c r="I3">
+        <v>1.000252584110811</v>
+      </c>
+      <c r="J3">
         <v>1.000410232294975</v>
-      </c>
-      <c r="J3">
-        <v>0.998417457385777</v>
       </c>
       <c r="K3">
         <v>1.000252584110811</v>
@@ -728,7 +680,7 @@
         <v>0.9999904716038847</v>
       </c>
     </row>
-    <row r="4" spans="1:30">
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,16 +688,16 @@
         <v>2</v>
       </c>
       <c r="C4">
+        <v>0.99694737855699</v>
+      </c>
+      <c r="D4">
+        <v>1.000918454697044</v>
+      </c>
+      <c r="E4">
         <v>1.000483617637495</v>
       </c>
-      <c r="D4">
+      <c r="F4">
         <v>0.99694737855699</v>
-      </c>
-      <c r="E4">
-        <v>1.000918454697044</v>
-      </c>
-      <c r="F4">
-        <v>1.000483617637495</v>
       </c>
       <c r="G4">
         <v>1.002532032879154</v>
@@ -754,10 +706,10 @@
         <v>0.9982204285355658</v>
       </c>
       <c r="I4">
+        <v>1.000483617637495</v>
+      </c>
+      <c r="J4">
         <v>1.000791678992289</v>
-      </c>
-      <c r="J4">
-        <v>0.99694737855699</v>
       </c>
       <c r="K4">
         <v>1.000483617637495</v>
@@ -790,7 +742,7 @@
         <v>0.9999822652164231</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,16 +750,16 @@
         <v>3</v>
       </c>
       <c r="C5">
+        <v>0.9941257153295334</v>
+      </c>
+      <c r="D5">
+        <v>1.001747605040423</v>
+      </c>
+      <c r="E5">
         <v>1.000966309005693</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>0.9941257153295334</v>
-      </c>
-      <c r="E5">
-        <v>1.001747605040423</v>
-      </c>
-      <c r="F5">
-        <v>1.000966309005693</v>
       </c>
       <c r="G5">
         <v>1.004809098569759</v>
@@ -816,10 +768,10 @@
         <v>0.9965883276329442</v>
       </c>
       <c r="I5">
+        <v>1.000966309005693</v>
+      </c>
+      <c r="J5">
         <v>1.001519824243118</v>
-      </c>
-      <c r="J5">
-        <v>0.9941257153295334</v>
       </c>
       <c r="K5">
         <v>1.000966309005693</v>
@@ -852,7 +804,7 @@
         <v>0.999959479970245</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,16 +812,16 @@
         <v>4</v>
       </c>
       <c r="C6">
+        <v>0.9913725499258402</v>
+      </c>
+      <c r="D6">
+        <v>1.002557141953514</v>
+      </c>
+      <c r="E6">
         <v>1.001436347624764</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>0.9913725499258402</v>
-      </c>
-      <c r="E6">
-        <v>1.002557141953514</v>
-      </c>
-      <c r="F6">
-        <v>1.001436347624764</v>
       </c>
       <c r="G6">
         <v>1.007032548113844</v>
@@ -878,10 +830,10 @@
         <v>0.9949955221821767</v>
       </c>
       <c r="I6">
+        <v>1.001436347624764</v>
+      </c>
+      <c r="J6">
         <v>1.002230380350176</v>
-      </c>
-      <c r="J6">
-        <v>0.9913725499258402</v>
       </c>
       <c r="K6">
         <v>1.001436347624764</v>
@@ -914,7 +866,7 @@
         <v>0.9999374150250526</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,28 +874,28 @@
         <v>5</v>
       </c>
       <c r="C7">
+        <v>0.9999417582930989</v>
+      </c>
+      <c r="D7">
+        <v>1.000008310364364</v>
+      </c>
+      <c r="E7">
         <v>1.000025814220723</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>0.9999417582930989</v>
-      </c>
-      <c r="E7">
-        <v>1.000008310364364</v>
-      </c>
-      <c r="F7">
-        <v>1.000025814220723</v>
       </c>
       <c r="G7">
         <v>1.000018818678323</v>
       </c>
       <c r="H7">
-        <v>0.9999720209496118</v>
+        <v>0.999972020949612</v>
       </c>
       <c r="I7">
+        <v>1.000025814220723</v>
+      </c>
+      <c r="J7">
         <v>1.000013411571022</v>
-      </c>
-      <c r="J7">
-        <v>0.9999417582930989</v>
       </c>
       <c r="K7">
         <v>1.000025814220723</v>
@@ -952,19 +904,19 @@
         <v>1.000008310364364</v>
       </c>
       <c r="M7">
-        <v>0.9999750343287312</v>
+        <v>0.9999750343287315</v>
       </c>
       <c r="N7">
-        <v>0.9999750343287312</v>
+        <v>0.9999750343287315</v>
       </c>
       <c r="O7">
-        <v>0.9999740298690248</v>
+        <v>0.9999740298690249</v>
       </c>
       <c r="P7">
-        <v>0.9999919609593949</v>
+        <v>0.9999919609593952</v>
       </c>
       <c r="Q7">
-        <v>0.9999919609593949</v>
+        <v>0.9999919609593952</v>
       </c>
       <c r="R7">
         <v>1.000000424274727</v>
@@ -973,10 +925,10 @@
         <v>1.000000424274727</v>
       </c>
       <c r="T7">
-        <v>0.999996689012857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999966890128572</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,28 +936,28 @@
         <v>6</v>
       </c>
       <c r="C8">
+        <v>0.9999629627462964</v>
+      </c>
+      <c r="D8">
+        <v>0.9999953532520527</v>
+      </c>
+      <c r="E8">
         <v>1.000034294730554</v>
       </c>
-      <c r="D8">
-        <v>0.999962962746296</v>
-      </c>
-      <c r="E8">
-        <v>0.9999953532520527</v>
-      </c>
       <c r="F8">
+        <v>0.9999629627462964</v>
+      </c>
+      <c r="G8">
+        <v>0.999980181993475</v>
+      </c>
+      <c r="H8">
+        <v>0.999988644663606</v>
+      </c>
+      <c r="I8">
         <v>1.000034294730554</v>
       </c>
-      <c r="G8">
-        <v>0.9999801819934753</v>
-      </c>
-      <c r="H8">
-        <v>0.9999886446636056</v>
-      </c>
-      <c r="I8">
+      <c r="J8">
         <v>1.000006704209319</v>
-      </c>
-      <c r="J8">
-        <v>0.999962962746296</v>
       </c>
       <c r="K8">
         <v>1.000034294730554</v>
@@ -1014,19 +966,19 @@
         <v>0.9999953532520527</v>
       </c>
       <c r="M8">
-        <v>0.9999791579991744</v>
+        <v>0.9999791579991746</v>
       </c>
       <c r="N8">
-        <v>0.9999791579991744</v>
+        <v>0.9999791579991746</v>
       </c>
       <c r="O8">
-        <v>0.9999823202206515</v>
+        <v>0.9999823202206518</v>
       </c>
       <c r="P8">
-        <v>0.9999975369096341</v>
+        <v>0.9999975369096342</v>
       </c>
       <c r="Q8">
-        <v>0.9999975369096341</v>
+        <v>0.9999975369096342</v>
       </c>
       <c r="R8">
         <v>1.000006726364864</v>
@@ -1035,10 +987,10 @@
         <v>1.000006726364864</v>
       </c>
       <c r="T8">
-        <v>0.9999946902658837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>0.9999946902658839</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,16 +998,16 @@
         <v>7</v>
       </c>
       <c r="C9">
+        <v>1.000152453616179</v>
+      </c>
+      <c r="D9">
+        <v>0.9999471284895873</v>
+      </c>
+      <c r="E9">
         <v>0.9999884561728483</v>
       </c>
-      <c r="D9">
+      <c r="F9">
         <v>1.000152453616179</v>
-      </c>
-      <c r="E9">
-        <v>0.9999471284895873</v>
-      </c>
-      <c r="F9">
-        <v>0.9999884561728483</v>
       </c>
       <c r="G9">
         <v>0.9998511278963021</v>
@@ -1064,10 +1016,10 @@
         <v>1.000093416764784</v>
       </c>
       <c r="I9">
+        <v>0.9999884561728483</v>
+      </c>
+      <c r="J9">
         <v>0.9999591748055757</v>
-      </c>
-      <c r="J9">
-        <v>1.000152453616179</v>
       </c>
       <c r="K9">
         <v>0.9999884561728483</v>
@@ -1100,7 +1052,7 @@
         <v>0.9999986262908794</v>
       </c>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,16 +1060,16 @@
         <v>8</v>
       </c>
       <c r="C10">
+        <v>1.000141760205109</v>
+      </c>
+      <c r="D10">
+        <v>0.9999270877467316</v>
+      </c>
+      <c r="E10">
         <v>1.000032012198073</v>
       </c>
-      <c r="D10">
+      <c r="F10">
         <v>1.000141760205109</v>
-      </c>
-      <c r="E10">
-        <v>0.9999270877467316</v>
-      </c>
-      <c r="F10">
-        <v>1.000032012198073</v>
       </c>
       <c r="G10">
         <v>0.9997855729726347</v>
@@ -1126,10 +1078,10 @@
         <v>1.000102254345857</v>
       </c>
       <c r="I10">
+        <v>1.000032012198073</v>
+      </c>
+      <c r="J10">
         <v>0.9999576768475392</v>
-      </c>
-      <c r="J10">
-        <v>1.000141760205109</v>
       </c>
       <c r="K10">
         <v>1.000032012198073</v>
@@ -1162,7 +1114,7 @@
         <v>0.9999910607193242</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,16 +1122,16 @@
         <v>9</v>
       </c>
       <c r="C11">
+        <v>1.000702043745861</v>
+      </c>
+      <c r="D11">
+        <v>0.9997740197104076</v>
+      </c>
+      <c r="E11">
         <v>0.9999153296641975</v>
       </c>
-      <c r="D11">
+      <c r="F11">
         <v>1.000702043745861</v>
-      </c>
-      <c r="E11">
-        <v>0.9997740197104076</v>
-      </c>
-      <c r="F11">
-        <v>0.9999153296641975</v>
       </c>
       <c r="G11">
         <v>0.9993704709480303</v>
@@ -1188,10 +1140,10 @@
         <v>1.000418829717386</v>
       </c>
       <c r="I11">
+        <v>0.9999153296641975</v>
+      </c>
+      <c r="J11">
         <v>0.9998152198542388</v>
-      </c>
-      <c r="J11">
-        <v>1.000702043745861</v>
       </c>
       <c r="K11">
         <v>0.9999153296641975</v>
@@ -1224,7 +1176,7 @@
         <v>0.9999993189400204</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,28 +1184,28 @@
         <v>10</v>
       </c>
       <c r="C12">
+        <v>0.9973719629308202</v>
+      </c>
+      <c r="D12">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="E12">
         <v>1.000282481962374</v>
       </c>
-      <c r="D12">
+      <c r="F12">
         <v>0.9973719629308202</v>
-      </c>
-      <c r="E12">
-        <v>1.000865077468418</v>
-      </c>
-      <c r="F12">
-        <v>1.000282481962374</v>
       </c>
       <c r="G12">
         <v>1.002417857854792</v>
       </c>
       <c r="H12">
-        <v>0.9984197460422127</v>
+        <v>0.9984197460422126</v>
       </c>
       <c r="I12">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="J12">
         <v>1.00069522627891</v>
-      </c>
-      <c r="J12">
-        <v>0.9973719629308202</v>
       </c>
       <c r="K12">
         <v>1.000282481962374</v>
@@ -1286,7 +1238,7 @@
         <v>1.000008725422921</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,16 +1246,16 @@
         <v>11</v>
       </c>
       <c r="C13">
+        <v>0.9990817833146899</v>
+      </c>
+      <c r="D13">
+        <v>1.000129187227138</v>
+      </c>
+      <c r="E13">
         <v>1.000410226801606</v>
       </c>
-      <c r="D13">
+      <c r="F13">
         <v>0.9990817833146899</v>
-      </c>
-      <c r="E13">
-        <v>1.000129187227138</v>
-      </c>
-      <c r="F13">
-        <v>1.000410226801606</v>
       </c>
       <c r="G13">
         <v>1.000290957719287</v>
@@ -1312,10 +1264,10 @@
         <v>0.9995600236539687</v>
       </c>
       <c r="I13">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="J13">
         <v>1.000211121594492</v>
-      </c>
-      <c r="J13">
-        <v>0.9990817833146899</v>
       </c>
       <c r="K13">
         <v>1.000410226801606</v>
@@ -1333,10 +1285,10 @@
         <v>0.9995903313985988</v>
       </c>
       <c r="P13">
-        <v>0.9998737324478113</v>
+        <v>0.9998737324478112</v>
       </c>
       <c r="Q13">
-        <v>0.9998737324478113</v>
+        <v>0.9998737324478112</v>
       </c>
       <c r="R13">
         <v>1.00000785603626</v>
@@ -1345,10 +1297,10 @@
         <v>1.00000785603626</v>
       </c>
       <c r="T13">
-        <v>0.9999472167185303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>0.99994721671853</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,16 +1308,16 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9277488733131458</v>
+        <v>1.277954329490422</v>
       </c>
       <c r="D14">
+        <v>0.9320461621327375</v>
+      </c>
+      <c r="E14">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="F14">
         <v>1.277954329490422</v>
-      </c>
-      <c r="E14">
-        <v>0.9320461621327375</v>
-      </c>
-      <c r="F14">
-        <v>0.9277488733131458</v>
       </c>
       <c r="G14">
         <v>0.8196082955855434</v>
@@ -1374,13 +1326,13 @@
         <v>1.151880390641586</v>
       </c>
       <c r="I14">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="J14">
         <v>0.9307933079817121</v>
       </c>
-      <c r="J14">
-        <v>1.277954329490422</v>
-      </c>
       <c r="K14">
-        <v>0.9277488733131458</v>
+        <v>0.9277488733131457</v>
       </c>
       <c r="L14">
         <v>0.9320461621327375</v>
@@ -1410,7 +1362,7 @@
         <v>1.006671893190858</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,28 +1370,28 @@
         <v>13</v>
       </c>
       <c r="C15">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="D15">
+        <v>0.9811661573293712</v>
+      </c>
+      <c r="E15">
         <v>0.9830245918534591</v>
       </c>
-      <c r="D15">
+      <c r="F15">
         <v>1.072680463717056</v>
       </c>
-      <c r="E15">
-        <v>0.9811661573293712</v>
-      </c>
-      <c r="F15">
-        <v>0.9830245918534591</v>
-      </c>
       <c r="G15">
-        <v>0.9494224432153224</v>
+        <v>0.9494224432153225</v>
       </c>
       <c r="H15">
         <v>1.040404348898871</v>
       </c>
       <c r="I15">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="J15">
         <v>0.9817079847949673</v>
-      </c>
-      <c r="J15">
-        <v>1.072680463717056</v>
       </c>
       <c r="K15">
         <v>0.9830245918534591</v>
@@ -1472,7 +1424,7 @@
         <v>1.001400998301508</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1432,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000046361193685</v>
+        <v>0.9689097110013526</v>
       </c>
       <c r="D16">
-        <v>0.9999655756815368</v>
+        <v>1.009121441050548</v>
       </c>
       <c r="E16">
-        <v>0.9999876331927574</v>
+        <v>1.005344596364361</v>
       </c>
       <c r="F16">
-        <v>1.000046361193685</v>
+        <v>0.9689097110013526</v>
       </c>
       <c r="G16">
-        <v>0.9999558269506368</v>
+        <v>1.025043251916226</v>
       </c>
       <c r="H16">
-        <v>0.9999946610079113</v>
+        <v>0.9820262761769459</v>
       </c>
       <c r="I16">
-        <v>1.000004753055766</v>
+        <v>1.005344596364361</v>
       </c>
       <c r="J16">
-        <v>0.9999655756815368</v>
+        <v>1.008020322393723</v>
       </c>
       <c r="K16">
-        <v>1.000046361193685</v>
+        <v>1.005344596364361</v>
       </c>
       <c r="L16">
-        <v>0.9999876331927574</v>
+        <v>1.009121441050548</v>
       </c>
       <c r="M16">
-        <v>0.9999766044371471</v>
+        <v>0.98901557602595</v>
       </c>
       <c r="N16">
-        <v>0.9999766044371471</v>
+        <v>0.98901557602595</v>
       </c>
       <c r="O16">
-        <v>0.9999826232940685</v>
+        <v>0.9866858094096154</v>
       </c>
       <c r="P16">
-        <v>0.9999998566893264</v>
+        <v>0.9944585828054203</v>
       </c>
       <c r="Q16">
-        <v>0.9999998566893263</v>
+        <v>0.9944585828054203</v>
       </c>
       <c r="R16">
-        <v>1.000011482815416</v>
+        <v>0.9971800861951554</v>
       </c>
       <c r="S16">
-        <v>1.000011482815416</v>
+        <v>0.9971800861951554</v>
       </c>
       <c r="T16">
-        <v>0.9999924685137156</v>
+        <v>0.9997442664838595</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1494,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999955658476287</v>
+        <v>0.9741518358116981</v>
       </c>
       <c r="D17">
-        <v>0.9998779240781552</v>
+        <v>1.00715139285431</v>
       </c>
       <c r="E17">
-        <v>1.000049939544589</v>
+        <v>1.005221200660163</v>
       </c>
       <c r="F17">
-        <v>0.9999955658476287</v>
+        <v>0.9741518358116981</v>
       </c>
       <c r="G17">
-        <v>1.000143519341251</v>
+        <v>1.019438040978662</v>
       </c>
       <c r="H17">
-        <v>0.9999202777078703</v>
+        <v>0.9853368121090481</v>
       </c>
       <c r="I17">
-        <v>1.000034085450207</v>
+        <v>1.005221200660163</v>
       </c>
       <c r="J17">
-        <v>0.9998779240781552</v>
+        <v>1.006588655112215</v>
       </c>
       <c r="K17">
-        <v>0.9999955658476287</v>
+        <v>1.005221200660163</v>
       </c>
       <c r="L17">
-        <v>1.000049939544589</v>
+        <v>1.00715139285431</v>
       </c>
       <c r="M17">
-        <v>0.999963931811372</v>
+        <v>0.9906516143330042</v>
       </c>
       <c r="N17">
-        <v>0.999963931811372</v>
+        <v>0.9906516143330042</v>
       </c>
       <c r="O17">
-        <v>0.9999493804435381</v>
+        <v>0.9888800135916855</v>
       </c>
       <c r="P17">
-        <v>0.9999744764901243</v>
+        <v>0.9955081431087239</v>
       </c>
       <c r="Q17">
-        <v>0.9999744764901243</v>
+        <v>0.9955081431087239</v>
       </c>
       <c r="R17">
-        <v>0.9999797488295004</v>
+        <v>0.9979364074965837</v>
       </c>
       <c r="S17">
-        <v>0.9999797488295004</v>
+        <v>0.9979364074965837</v>
       </c>
       <c r="T17">
-        <v>1.00000355199495</v>
+        <v>0.9996479895876828</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1556,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000183448643836</v>
+        <v>0.9849810648624727</v>
       </c>
       <c r="D18">
-        <v>0.9994477109054805</v>
+        <v>1.00313999994478</v>
       </c>
       <c r="E18">
-        <v>1.000112863738293</v>
+        <v>1.004861258239289</v>
       </c>
       <c r="F18">
-        <v>1.000183448643836</v>
+        <v>0.9849810648624727</v>
       </c>
       <c r="G18">
-        <v>1.000287516832997</v>
+        <v>1.008045461036991</v>
       </c>
       <c r="H18">
-        <v>0.9997125795757034</v>
+        <v>0.9921379376009423</v>
       </c>
       <c r="I18">
-        <v>1.000133443719112</v>
+        <v>1.004861258239289</v>
       </c>
       <c r="J18">
-        <v>0.9994477109054805</v>
+        <v>1.003641822513218</v>
       </c>
       <c r="K18">
-        <v>1.000183448643836</v>
+        <v>1.004861258239289</v>
       </c>
       <c r="L18">
-        <v>1.000112863738293</v>
+        <v>1.00313999994478</v>
       </c>
       <c r="M18">
-        <v>0.9997802873218867</v>
+        <v>0.9940605324036262</v>
       </c>
       <c r="N18">
-        <v>0.9997802873218867</v>
+        <v>0.9940605324036262</v>
       </c>
       <c r="O18">
-        <v>0.9997577180731589</v>
+        <v>0.9934196674693982</v>
       </c>
       <c r="P18">
-        <v>0.9999146744292032</v>
+        <v>0.997660774348847</v>
       </c>
       <c r="Q18">
-        <v>0.9999146744292032</v>
+        <v>0.9976607743488471</v>
       </c>
       <c r="R18">
-        <v>0.9999818679828615</v>
+        <v>0.9994608953214577</v>
       </c>
       <c r="S18">
-        <v>0.9999818679828615</v>
+        <v>0.9994608953214577</v>
       </c>
       <c r="T18">
-        <v>0.9999795939025703</v>
+        <v>0.9994679240329489</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,57 +1618,305 @@
         <v>17</v>
       </c>
       <c r="C19">
+        <v>0.9825261832867465</v>
+      </c>
+      <c r="D19">
+        <v>1.003502097975585</v>
+      </c>
+      <c r="E19">
+        <v>1.005927892849819</v>
+      </c>
+      <c r="F19">
+        <v>0.9825261832867465</v>
+      </c>
+      <c r="G19">
+        <v>1.008876871757501</v>
+      </c>
+      <c r="H19">
+        <v>0.9909507988459104</v>
+      </c>
+      <c r="I19">
+        <v>1.005927892849819</v>
+      </c>
+      <c r="J19">
+        <v>1.004209331544818</v>
+      </c>
+      <c r="K19">
+        <v>1.005927892849819</v>
+      </c>
+      <c r="L19">
+        <v>1.003502097975585</v>
+      </c>
+      <c r="M19">
+        <v>0.9930141406311659</v>
+      </c>
+      <c r="N19">
+        <v>0.9930141406311659</v>
+      </c>
+      <c r="O19">
+        <v>0.9923263600360808</v>
+      </c>
+      <c r="P19">
+        <v>0.9973187247040501</v>
+      </c>
+      <c r="Q19">
+        <v>0.9973187247040501</v>
+      </c>
+      <c r="R19">
+        <v>0.9994710167404923</v>
+      </c>
+      <c r="S19">
+        <v>0.9994710167404923</v>
+      </c>
+      <c r="T19">
+        <v>0.9993321960433965</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.9999655756815365</v>
+      </c>
+      <c r="D20">
+        <v>0.9999876331927574</v>
+      </c>
+      <c r="E20">
+        <v>1.000046361193685</v>
+      </c>
+      <c r="F20">
+        <v>0.9999655756815365</v>
+      </c>
+      <c r="G20">
+        <v>0.9999558269506368</v>
+      </c>
+      <c r="H20">
+        <v>0.9999946610079113</v>
+      </c>
+      <c r="I20">
+        <v>1.000046361193685</v>
+      </c>
+      <c r="J20">
+        <v>1.000004753055766</v>
+      </c>
+      <c r="K20">
+        <v>1.000046361193685</v>
+      </c>
+      <c r="L20">
+        <v>0.9999876331927574</v>
+      </c>
+      <c r="M20">
+        <v>0.999976604437147</v>
+      </c>
+      <c r="N20">
+        <v>0.999976604437147</v>
+      </c>
+      <c r="O20">
+        <v>0.9999826232940684</v>
+      </c>
+      <c r="P20">
+        <v>0.9999998566893263</v>
+      </c>
+      <c r="Q20">
+        <v>0.9999998566893263</v>
+      </c>
+      <c r="R20">
+        <v>1.000011482815416</v>
+      </c>
+      <c r="S20">
+        <v>1.000011482815416</v>
+      </c>
+      <c r="T20">
+        <v>0.9999924685137156</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>0.9998779240781555</v>
+      </c>
+      <c r="D21">
+        <v>1.000049939544589</v>
+      </c>
+      <c r="E21">
+        <v>0.9999955658476287</v>
+      </c>
+      <c r="F21">
+        <v>0.9998779240781555</v>
+      </c>
+      <c r="G21">
+        <v>1.000143519341251</v>
+      </c>
+      <c r="H21">
+        <v>0.9999202777078704</v>
+      </c>
+      <c r="I21">
+        <v>0.9999955658476287</v>
+      </c>
+      <c r="J21">
+        <v>1.000034085450207</v>
+      </c>
+      <c r="K21">
+        <v>0.9999955658476287</v>
+      </c>
+      <c r="L21">
+        <v>1.000049939544589</v>
+      </c>
+      <c r="M21">
+        <v>0.9999639318113721</v>
+      </c>
+      <c r="N21">
+        <v>0.9999639318113721</v>
+      </c>
+      <c r="O21">
+        <v>0.9999493804435383</v>
+      </c>
+      <c r="P21">
+        <v>0.9999744764901243</v>
+      </c>
+      <c r="Q21">
+        <v>0.9999744764901243</v>
+      </c>
+      <c r="R21">
+        <v>0.9999797488295004</v>
+      </c>
+      <c r="S21">
+        <v>0.9999797488295004</v>
+      </c>
+      <c r="T21">
+        <v>1.00000355199495</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>0.9994477109054802</v>
+      </c>
+      <c r="D22">
+        <v>1.000112863738293</v>
+      </c>
+      <c r="E22">
+        <v>1.000183448643837</v>
+      </c>
+      <c r="F22">
+        <v>0.9994477109054802</v>
+      </c>
+      <c r="G22">
+        <v>1.000287516832997</v>
+      </c>
+      <c r="H22">
+        <v>0.9997125795757036</v>
+      </c>
+      <c r="I22">
+        <v>1.000183448643837</v>
+      </c>
+      <c r="J22">
+        <v>1.000133443719112</v>
+      </c>
+      <c r="K22">
+        <v>1.000183448643837</v>
+      </c>
+      <c r="L22">
+        <v>1.000112863738293</v>
+      </c>
+      <c r="M22">
+        <v>0.9997802873218866</v>
+      </c>
+      <c r="N22">
+        <v>0.9997802873218866</v>
+      </c>
+      <c r="O22">
+        <v>0.9997577180731589</v>
+      </c>
+      <c r="P22">
+        <v>0.9999146744292032</v>
+      </c>
+      <c r="Q22">
+        <v>0.9999146744292032</v>
+      </c>
+      <c r="R22">
+        <v>0.9999818679828616</v>
+      </c>
+      <c r="S22">
+        <v>0.9999818679828616</v>
+      </c>
+      <c r="T22">
+        <v>0.9999795939025701</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9986458786381561</v>
+      </c>
+      <c r="D23">
+        <v>1.000233419849397</v>
+      </c>
+      <c r="E23">
         <v>1.000527720428362</v>
       </c>
-      <c r="D19">
+      <c r="F23">
         <v>0.9986458786381561</v>
       </c>
-      <c r="E19">
+      <c r="G23">
+        <v>1.000566402307763</v>
+      </c>
+      <c r="H23">
+        <v>0.9993233418037238</v>
+      </c>
+      <c r="I23">
+        <v>1.000527720428362</v>
+      </c>
+      <c r="J23">
+        <v>1.000319225065965</v>
+      </c>
+      <c r="K23">
+        <v>1.000527720428362</v>
+      </c>
+      <c r="L23">
         <v>1.000233419849397</v>
       </c>
-      <c r="F19">
-        <v>1.000527720428362</v>
-      </c>
-      <c r="G19">
-        <v>1.000566402307763</v>
-      </c>
-      <c r="H19">
-        <v>0.9993233418037238</v>
-      </c>
-      <c r="I19">
-        <v>1.000319225065965</v>
-      </c>
-      <c r="J19">
-        <v>0.9986458786381561</v>
-      </c>
-      <c r="K19">
-        <v>1.000527720428362</v>
-      </c>
-      <c r="L19">
-        <v>1.000233419849397</v>
-      </c>
-      <c r="M19">
+      <c r="M23">
         <v>0.9994396492437763</v>
       </c>
-      <c r="N19">
+      <c r="N23">
         <v>0.9994396492437763</v>
       </c>
-      <c r="O19">
+      <c r="O23">
         <v>0.9994008800970922</v>
       </c>
-      <c r="P19">
+      <c r="P23">
         <v>0.9998023396386383</v>
       </c>
-      <c r="Q19">
+      <c r="Q23">
         <v>0.9998023396386383</v>
       </c>
-      <c r="R19">
+      <c r="R23">
         <v>0.9999836848360693</v>
       </c>
-      <c r="S19">
+      <c r="S23">
         <v>0.9999836848360693</v>
       </c>
-      <c r="T19">
+      <c r="T23">
         <v>0.9999359980155612</v>
       </c>
     </row>

--- a/JupyterNotebooks/AvgHW/GossF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW35.xlsx
@@ -14,11 +14,47 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>HKL</t>
   </si>
   <si>
+    <t>EA_5</t>
+  </si>
+  <si>
+    <t>EA_2.5</t>
+  </si>
+  <si>
+    <t>EA_10</t>
+  </si>
+  <si>
+    <t>EA_15</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_2.5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_5</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_10</t>
+  </si>
+  <si>
+    <t>RizzieSpiral_15</t>
+  </si>
+  <si>
+    <t>CLR_5</t>
+  </si>
+  <si>
+    <t>CLR_2.5</t>
+  </si>
+  <si>
+    <t>CLR_10</t>
+  </si>
+  <si>
+    <t>CLR_15</t>
+  </si>
+  <si>
     <t>BT8Hex_2.5</t>
   </si>
   <si>
@@ -70,6 +106,18 @@
     <t>Holden15</t>
   </si>
   <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>Rotation-90detTilt</t>
+  </si>
+  <si>
     <t>HexGrid-90degTilt2.5degRes</t>
   </si>
   <si>
@@ -80,6 +128,15 @@
   </si>
   <si>
     <t>HexGrid-90degTilt15degRes</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-90</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-60 Weighted</t>
+  </si>
+  <si>
+    <t>RotRing Axis-Y Res-5.0 Theta-2.84623415 OmegaMax-30</t>
   </si>
   <si>
     <t>[4, 0, 0]</t>
@@ -491,7 +548,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -564,58 +621,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>44</v>
       </c>
       <c r="G2" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="I2" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="J2" t="s">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="K2" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="L2" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="N2" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s">
-        <v>35</v>
+        <v>54</v>
       </c>
       <c r="Q2" t="s">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -626,58 +683,58 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>0.998417457385777</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="D3">
-        <v>1.000475110494009</v>
+        <v>1.003992870180115</v>
       </c>
       <c r="E3">
-        <v>1.000252584110811</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="F3">
-        <v>0.998417457385777</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="G3">
-        <v>1.001309339523482</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="H3">
-        <v>0.999078105814253</v>
+        <v>0.9901617423847269</v>
       </c>
       <c r="I3">
-        <v>1.000252584110811</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="J3">
-        <v>1.000410232294975</v>
+        <v>1.004547225475502</v>
       </c>
       <c r="K3">
-        <v>1.000252584110811</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="L3">
-        <v>1.000475110494009</v>
+        <v>1.003992870180115</v>
       </c>
       <c r="M3">
-        <v>0.999446283939893</v>
+        <v>0.9926525168443798</v>
       </c>
       <c r="N3">
-        <v>0.999446283939893</v>
+        <v>0.9926525168443798</v>
       </c>
       <c r="O3">
-        <v>0.999323557898013</v>
+        <v>0.9918222586911621</v>
       </c>
       <c r="P3">
-        <v>0.9997150506635325</v>
+        <v>0.9970664513616714</v>
       </c>
       <c r="Q3">
-        <v>0.9997150506635325</v>
+        <v>0.9970664513616714</v>
       </c>
       <c r="R3">
-        <v>0.9998494340253522</v>
+        <v>0.9992734186203172</v>
       </c>
       <c r="S3">
-        <v>0.9998494340253522</v>
+        <v>0.9992734186203172</v>
       </c>
       <c r="T3">
-        <v>0.9999904716038847</v>
+        <v>0.9993656313232463</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -688,58 +745,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.99694737855699</v>
+        <v>0.9828770964358945</v>
       </c>
       <c r="D4">
-        <v>1.000918454697044</v>
+        <v>1.003628119865824</v>
       </c>
       <c r="E4">
-        <v>1.000483617637495</v>
+        <v>1.005455418741148</v>
       </c>
       <c r="F4">
-        <v>0.99694737855699</v>
+        <v>0.9828770964358945</v>
       </c>
       <c r="G4">
-        <v>1.002532032879154</v>
+        <v>1.009326922406817</v>
       </c>
       <c r="H4">
-        <v>0.9982204285355658</v>
+        <v>0.9910052946216841</v>
       </c>
       <c r="I4">
-        <v>1.000483617637495</v>
+        <v>1.005455418741148</v>
       </c>
       <c r="J4">
-        <v>1.000791678992289</v>
+        <v>1.004160856923223</v>
       </c>
       <c r="K4">
-        <v>1.000483617637495</v>
+        <v>1.005455418741148</v>
       </c>
       <c r="L4">
-        <v>1.000918454697044</v>
+        <v>1.003628119865824</v>
       </c>
       <c r="M4">
-        <v>0.998932916627017</v>
+        <v>0.993252608150859</v>
       </c>
       <c r="N4">
-        <v>0.998932916627017</v>
+        <v>0.993252608150859</v>
       </c>
       <c r="O4">
-        <v>0.9986954205965333</v>
+        <v>0.9925035036411339</v>
       </c>
       <c r="P4">
-        <v>0.9994498169638431</v>
+        <v>0.9973202116809553</v>
       </c>
       <c r="Q4">
-        <v>0.9994498169638431</v>
+        <v>0.9973202116809553</v>
       </c>
       <c r="R4">
-        <v>0.9997082671322561</v>
+        <v>0.9993540134460035</v>
       </c>
       <c r="S4">
-        <v>0.9997082671322561</v>
+        <v>0.9993540134460035</v>
       </c>
       <c r="T4">
-        <v>0.9999822652164231</v>
+        <v>0.9994089514990984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -750,58 +807,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9941257153295334</v>
+        <v>0.9785629583557948</v>
       </c>
       <c r="D5">
-        <v>1.001747605040423</v>
+        <v>1.004625931671158</v>
       </c>
       <c r="E5">
-        <v>1.000966309005693</v>
+        <v>1.006679250512128</v>
       </c>
       <c r="F5">
-        <v>0.9941257153295334</v>
+        <v>0.9785629583557948</v>
       </c>
       <c r="G5">
-        <v>1.004809098569759</v>
+        <v>1.011944697762802</v>
       </c>
       <c r="H5">
-        <v>0.9965883276329442</v>
+        <v>0.9886848249595689</v>
       </c>
       <c r="I5">
-        <v>1.000966309005693</v>
+        <v>1.006679250512128</v>
       </c>
       <c r="J5">
-        <v>1.001519824243118</v>
+        <v>1.005224564824797</v>
       </c>
       <c r="K5">
-        <v>1.000966309005693</v>
+        <v>1.006679250512128</v>
       </c>
       <c r="L5">
-        <v>1.001747605040423</v>
+        <v>1.004625931671158</v>
       </c>
       <c r="M5">
-        <v>0.9979366601849784</v>
+        <v>0.9915944450134766</v>
       </c>
       <c r="N5">
-        <v>0.9979366601849784</v>
+        <v>0.9915944450134766</v>
       </c>
       <c r="O5">
-        <v>0.997487216000967</v>
+        <v>0.990624571662174</v>
       </c>
       <c r="P5">
-        <v>0.9989465431252165</v>
+        <v>0.9966227135130271</v>
       </c>
       <c r="Q5">
-        <v>0.9989465431252165</v>
+        <v>0.9966227135130271</v>
       </c>
       <c r="R5">
-        <v>0.9994514845953355</v>
+        <v>0.9991368477628024</v>
       </c>
       <c r="S5">
-        <v>0.9994514845953355</v>
+        <v>0.9991368477628024</v>
       </c>
       <c r="T5">
-        <v>0.999959479970245</v>
+        <v>0.9992870380143749</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -812,58 +869,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9913725499258402</v>
+        <v>0.9762609464204551</v>
       </c>
       <c r="D6">
-        <v>1.002557141953514</v>
+        <v>1.005146095340909</v>
       </c>
       <c r="E6">
-        <v>1.001436347624764</v>
+        <v>1.007354363352273</v>
       </c>
       <c r="F6">
-        <v>0.9913725499258402</v>
+        <v>0.9762609464204551</v>
       </c>
       <c r="G6">
-        <v>1.007032548113844</v>
+        <v>1.013302290568183</v>
       </c>
       <c r="H6">
-        <v>0.9949955221821767</v>
+        <v>0.9874545813068184</v>
       </c>
       <c r="I6">
-        <v>1.001436347624764</v>
+        <v>1.007354363352273</v>
       </c>
       <c r="J6">
-        <v>1.002230380350176</v>
+        <v>1.005789903522728</v>
       </c>
       <c r="K6">
-        <v>1.001436347624764</v>
+        <v>1.007354363352273</v>
       </c>
       <c r="L6">
-        <v>1.002557141953514</v>
+        <v>1.005146095340909</v>
       </c>
       <c r="M6">
-        <v>0.9969648459396772</v>
+        <v>0.990703520880682</v>
       </c>
       <c r="N6">
-        <v>0.9969648459396772</v>
+        <v>0.990703520880682</v>
       </c>
       <c r="O6">
-        <v>0.9963084046871771</v>
+        <v>0.9896205410227275</v>
       </c>
       <c r="P6">
-        <v>0.9984553465013729</v>
+        <v>0.9962538017045456</v>
       </c>
       <c r="Q6">
-        <v>0.9984553465013729</v>
+        <v>0.9962538017045456</v>
       </c>
       <c r="R6">
-        <v>0.9992005967822208</v>
+        <v>0.9990289421164773</v>
       </c>
       <c r="S6">
-        <v>0.9992005967822208</v>
+        <v>0.9990289421164773</v>
       </c>
       <c r="T6">
-        <v>0.9999374150250526</v>
+        <v>0.9992180300852276</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -874,58 +931,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9999417582930989</v>
+        <v>0.9693838702959789</v>
       </c>
       <c r="D7">
-        <v>1.000008310364364</v>
+        <v>1.010110411111063</v>
       </c>
       <c r="E7">
-        <v>1.000025814220723</v>
+        <v>1.003232533580409</v>
       </c>
       <c r="F7">
-        <v>0.9999417582930989</v>
+        <v>0.9693838702959789</v>
       </c>
       <c r="G7">
-        <v>1.000018818678323</v>
+        <v>1.028271182575444</v>
       </c>
       <c r="H7">
-        <v>0.999972020949612</v>
+        <v>0.9815693977223132</v>
       </c>
       <c r="I7">
-        <v>1.000025814220723</v>
+        <v>1.003232533580409</v>
       </c>
       <c r="J7">
-        <v>1.000013411571022</v>
+        <v>1.008105202849487</v>
       </c>
       <c r="K7">
-        <v>1.000025814220723</v>
+        <v>1.003232533580409</v>
       </c>
       <c r="L7">
-        <v>1.000008310364364</v>
+        <v>1.010110411111063</v>
       </c>
       <c r="M7">
-        <v>0.9999750343287315</v>
+        <v>0.9897471407035208</v>
       </c>
       <c r="N7">
-        <v>0.9999750343287315</v>
+        <v>0.9897471407035208</v>
       </c>
       <c r="O7">
-        <v>0.9999740298690249</v>
+        <v>0.9870212263764516</v>
       </c>
       <c r="P7">
-        <v>0.9999919609593952</v>
+        <v>0.9942422716624835</v>
       </c>
       <c r="Q7">
-        <v>0.9999919609593952</v>
+        <v>0.9942422716624835</v>
       </c>
       <c r="R7">
-        <v>1.000000424274727</v>
+        <v>0.9964898371419648</v>
       </c>
       <c r="S7">
-        <v>1.000000424274727</v>
+        <v>0.9964898371419648</v>
       </c>
       <c r="T7">
-        <v>0.9999966890128572</v>
+        <v>1.000112099689116</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -936,58 +993,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9999629627462964</v>
+        <v>0.9700504114319629</v>
       </c>
       <c r="D8">
-        <v>0.9999953532520527</v>
+        <v>1.009913534414464</v>
       </c>
       <c r="E8">
-        <v>1.000034294730554</v>
+        <v>1.003120332843378</v>
       </c>
       <c r="F8">
-        <v>0.9999629627462964</v>
+        <v>0.9700504114319629</v>
       </c>
       <c r="G8">
-        <v>0.999980181993475</v>
+        <v>1.027730049476684</v>
       </c>
       <c r="H8">
-        <v>0.999988644663606</v>
+        <v>0.9819555917340645</v>
       </c>
       <c r="I8">
-        <v>1.000034294730554</v>
+        <v>1.003120332843378</v>
       </c>
       <c r="J8">
-        <v>1.000006704209319</v>
+        <v>1.007933013049084</v>
       </c>
       <c r="K8">
-        <v>1.000034294730554</v>
+        <v>1.003120332843378</v>
       </c>
       <c r="L8">
-        <v>0.9999953532520527</v>
+        <v>1.009913534414464</v>
       </c>
       <c r="M8">
-        <v>0.9999791579991746</v>
+        <v>0.9899819729232135</v>
       </c>
       <c r="N8">
-        <v>0.9999791579991746</v>
+        <v>0.9899819729232135</v>
       </c>
       <c r="O8">
-        <v>0.9999823202206518</v>
+        <v>0.9873065125268305</v>
       </c>
       <c r="P8">
-        <v>0.9999975369096342</v>
+        <v>0.994361426229935</v>
       </c>
       <c r="Q8">
-        <v>0.9999975369096342</v>
+        <v>0.994361426229935</v>
       </c>
       <c r="R8">
-        <v>1.000006726364864</v>
+        <v>0.9965511528832957</v>
       </c>
       <c r="S8">
-        <v>1.000006726364864</v>
+        <v>0.9965511528832957</v>
       </c>
       <c r="T8">
-        <v>0.9999946902658839</v>
+        <v>1.000117155491606</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -998,58 +1055,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>1.000152453616179</v>
+        <v>0.9701907819581814</v>
       </c>
       <c r="D9">
-        <v>0.9999471284895873</v>
+        <v>1.009843956396129</v>
       </c>
       <c r="E9">
-        <v>0.9999884561728483</v>
+        <v>1.003147313828966</v>
       </c>
       <c r="F9">
-        <v>1.000152453616179</v>
+        <v>0.9701907819581814</v>
       </c>
       <c r="G9">
-        <v>0.9998511278963021</v>
+        <v>1.027526115922885</v>
       </c>
       <c r="H9">
-        <v>1.000093416764784</v>
+        <v>0.9820551420153347</v>
       </c>
       <c r="I9">
-        <v>0.9999884561728483</v>
+        <v>1.003147313828966</v>
       </c>
       <c r="J9">
-        <v>0.9999591748055757</v>
+        <v>1.007891586275369</v>
       </c>
       <c r="K9">
-        <v>0.9999884561728483</v>
+        <v>1.003147313828966</v>
       </c>
       <c r="L9">
-        <v>0.9999471284895873</v>
+        <v>1.009843956396129</v>
       </c>
       <c r="M9">
-        <v>1.000049791052883</v>
+        <v>0.9900173691771553</v>
       </c>
       <c r="N9">
-        <v>1.000049791052883</v>
+        <v>0.9900173691771553</v>
       </c>
       <c r="O9">
-        <v>1.00006433295685</v>
+        <v>0.9873632934565485</v>
       </c>
       <c r="P9">
-        <v>1.000029346092872</v>
+        <v>0.9943940173944256</v>
       </c>
       <c r="Q9">
-        <v>1.000029346092872</v>
+        <v>0.9943940173944256</v>
       </c>
       <c r="R9">
-        <v>1.000019123612866</v>
+        <v>0.9965823415030607</v>
       </c>
       <c r="S9">
-        <v>1.000019123612866</v>
+        <v>0.9965823415030607</v>
       </c>
       <c r="T9">
-        <v>0.9999986262908794</v>
+        <v>1.000109149399478</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1060,58 +1117,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000141760205109</v>
+        <v>0.9743884169910537</v>
       </c>
       <c r="D10">
-        <v>0.9999270877467316</v>
+        <v>1.008750006809369</v>
       </c>
       <c r="E10">
-        <v>1.000032012198073</v>
+        <v>1.002178078401319</v>
       </c>
       <c r="F10">
-        <v>1.000141760205109</v>
+        <v>0.9743884169910537</v>
       </c>
       <c r="G10">
-        <v>0.9997855729726347</v>
+        <v>1.024585161801206</v>
       </c>
       <c r="H10">
-        <v>1.000102254345857</v>
+        <v>0.9843927037336346</v>
       </c>
       <c r="I10">
-        <v>1.000032012198073</v>
+        <v>1.002178078401319</v>
       </c>
       <c r="J10">
-        <v>0.9999576768475392</v>
+        <v>1.006833996286193</v>
       </c>
       <c r="K10">
-        <v>1.000032012198073</v>
+        <v>1.002178078401319</v>
       </c>
       <c r="L10">
-        <v>0.9999270877467316</v>
+        <v>1.008750006809369</v>
       </c>
       <c r="M10">
-        <v>1.00003442397592</v>
+        <v>0.9915692119002112</v>
       </c>
       <c r="N10">
-        <v>1.00003442397592</v>
+        <v>0.9915692119002112</v>
       </c>
       <c r="O10">
-        <v>1.000057034099233</v>
+        <v>0.9891770425113524</v>
       </c>
       <c r="P10">
-        <v>1.000033620049971</v>
+        <v>0.9951055007339136</v>
       </c>
       <c r="Q10">
-        <v>1.000033620049971</v>
+        <v>0.9951055007339136</v>
       </c>
       <c r="R10">
-        <v>1.000033218086997</v>
+        <v>0.9968736451507648</v>
       </c>
       <c r="S10">
-        <v>1.000033218086997</v>
+        <v>0.9968736451507648</v>
       </c>
       <c r="T10">
-        <v>0.9999910607193242</v>
+        <v>1.000188060670463</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1122,58 +1179,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.000702043745861</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="D11">
-        <v>0.9997740197104076</v>
+        <v>1.000554658191328</v>
       </c>
       <c r="E11">
-        <v>0.9999153296641975</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="F11">
-        <v>1.000702043745861</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="G11">
-        <v>0.9993704709480303</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="H11">
-        <v>1.000418829717386</v>
+        <v>0.9989280212791537</v>
       </c>
       <c r="I11">
-        <v>0.9999153296641975</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="J11">
-        <v>0.9998152198542388</v>
+        <v>1.000476672797012</v>
       </c>
       <c r="K11">
-        <v>0.9999153296641975</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="L11">
-        <v>0.9997740197104076</v>
+        <v>1.000554658191328</v>
       </c>
       <c r="M11">
-        <v>1.000238031728134</v>
+        <v>0.9993590761956256</v>
       </c>
       <c r="N11">
-        <v>1.000238031728134</v>
+        <v>0.9993590761956256</v>
       </c>
       <c r="O11">
-        <v>1.000298297724552</v>
+        <v>0.9992153912234683</v>
       </c>
       <c r="P11">
-        <v>1.000130464373489</v>
+        <v>0.9996684416332468</v>
       </c>
       <c r="Q11">
-        <v>1.000130464373489</v>
+        <v>0.9996684416332468</v>
       </c>
       <c r="R11">
-        <v>1.000076680696166</v>
+        <v>0.9998231243520574</v>
       </c>
       <c r="S11">
-        <v>1.000076680696166</v>
+        <v>0.9998231243520574</v>
       </c>
       <c r="T11">
-        <v>0.9999993189400204</v>
+        <v>0.9999900081076646</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1184,58 +1241,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9973719629308202</v>
+        <v>0.9992592215091433</v>
       </c>
       <c r="D12">
-        <v>1.000865077468418</v>
+        <v>1.000236256869926</v>
       </c>
       <c r="E12">
-        <v>1.000282481962374</v>
+        <v>1.000093285853399</v>
       </c>
       <c r="F12">
-        <v>0.9973719629308202</v>
+        <v>0.9992592215091433</v>
       </c>
       <c r="G12">
-        <v>1.002417857854792</v>
+        <v>1.000657243230547</v>
       </c>
       <c r="H12">
-        <v>0.9984197460422126</v>
+        <v>0.9995594873406962</v>
       </c>
       <c r="I12">
-        <v>1.000282481962374</v>
+        <v>1.000093285853399</v>
       </c>
       <c r="J12">
-        <v>1.00069522627891</v>
+        <v>1.000194572574252</v>
       </c>
       <c r="K12">
-        <v>1.000282481962374</v>
+        <v>1.000093285853399</v>
       </c>
       <c r="L12">
-        <v>1.000865077468418</v>
+        <v>1.000236256869926</v>
       </c>
       <c r="M12">
-        <v>0.9991185201996193</v>
+        <v>0.9997477391895349</v>
       </c>
       <c r="N12">
-        <v>0.9991185201996193</v>
+        <v>0.9997477391895349</v>
       </c>
       <c r="O12">
-        <v>0.9988855954804837</v>
+        <v>0.9996849885732554</v>
       </c>
       <c r="P12">
-        <v>0.999506507453871</v>
+        <v>0.9998629214108229</v>
       </c>
       <c r="Q12">
-        <v>0.999506507453871</v>
+        <v>0.9998629214108229</v>
       </c>
       <c r="R12">
-        <v>0.9997005010809968</v>
+        <v>0.999920512521467</v>
       </c>
       <c r="S12">
-        <v>0.9997005010809968</v>
+        <v>0.999920512521467</v>
       </c>
       <c r="T12">
-        <v>1.000008725422921</v>
+        <v>1.000000011229661</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1246,58 +1303,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9990817833146899</v>
+        <v>0.998966902034584</v>
       </c>
       <c r="D13">
-        <v>1.000129187227138</v>
+        <v>1.000440313895917</v>
       </c>
       <c r="E13">
-        <v>1.000410226801606</v>
+        <v>0.9999306057302135</v>
       </c>
       <c r="F13">
-        <v>0.9990817833146899</v>
+        <v>0.998966902034584</v>
       </c>
       <c r="G13">
-        <v>1.000290957719287</v>
+        <v>1.001271250706059</v>
       </c>
       <c r="H13">
-        <v>0.9995600236539687</v>
+        <v>0.9993138356890987</v>
       </c>
       <c r="I13">
-        <v>1.000410226801606</v>
+        <v>0.9999306057302135</v>
       </c>
       <c r="J13">
-        <v>1.000211121594492</v>
+        <v>1.000291711891675</v>
       </c>
       <c r="K13">
-        <v>1.000410226801606</v>
+        <v>0.9999306057302135</v>
       </c>
       <c r="L13">
-        <v>1.000129187227138</v>
+        <v>1.000440313895917</v>
       </c>
       <c r="M13">
-        <v>0.9996054852709138</v>
+        <v>0.9997036079652504</v>
       </c>
       <c r="N13">
-        <v>0.9996054852709138</v>
+        <v>0.9997036079652504</v>
       </c>
       <c r="O13">
-        <v>0.9995903313985988</v>
+        <v>0.9995736838731998</v>
       </c>
       <c r="P13">
-        <v>0.9998737324478112</v>
+        <v>0.9997792738869048</v>
       </c>
       <c r="Q13">
-        <v>0.9998737324478112</v>
+        <v>0.9997792738869048</v>
       </c>
       <c r="R13">
-        <v>1.00000785603626</v>
+        <v>0.999817106847732</v>
       </c>
       <c r="S13">
-        <v>1.00000785603626</v>
+        <v>0.999817106847732</v>
       </c>
       <c r="T13">
-        <v>0.99994721671853</v>
+        <v>1.000035769991258</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1308,58 +1365,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>1.277954329490422</v>
+        <v>0.9956013407811746</v>
       </c>
       <c r="D14">
-        <v>0.9320461621327375</v>
+        <v>1.001309697480607</v>
       </c>
       <c r="E14">
-        <v>0.9277488733131457</v>
+        <v>1.000721601546542</v>
       </c>
       <c r="F14">
-        <v>1.277954329490422</v>
+        <v>0.9956013407811746</v>
       </c>
       <c r="G14">
-        <v>0.8196082955855434</v>
+        <v>1.003604545184614</v>
       </c>
       <c r="H14">
-        <v>1.151880390641586</v>
+        <v>0.997444640290394</v>
       </c>
       <c r="I14">
-        <v>0.9277488733131457</v>
+        <v>1.000721601546542</v>
       </c>
       <c r="J14">
-        <v>0.9307933079817121</v>
+        <v>1.001138241325778</v>
       </c>
       <c r="K14">
-        <v>0.9277488733131457</v>
+        <v>1.000721601546542</v>
       </c>
       <c r="L14">
-        <v>0.9320461621327375</v>
+        <v>1.001309697480607</v>
       </c>
       <c r="M14">
-        <v>1.10500024581158</v>
+        <v>0.998455519130891</v>
       </c>
       <c r="N14">
-        <v>1.10500024581158</v>
+        <v>0.998455519130891</v>
       </c>
       <c r="O14">
-        <v>1.120626960754915</v>
+        <v>0.9981185595173919</v>
       </c>
       <c r="P14">
-        <v>1.045916454978769</v>
+        <v>0.999210879936108</v>
       </c>
       <c r="Q14">
-        <v>1.045916454978769</v>
+        <v>0.999210879936108</v>
       </c>
       <c r="R14">
-        <v>1.016374559562363</v>
+        <v>0.9995885603387165</v>
       </c>
       <c r="S14">
-        <v>1.016374559562363</v>
+        <v>0.9995885603387165</v>
       </c>
       <c r="T14">
-        <v>1.006671893190858</v>
+        <v>0.9999700111015183</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1370,58 +1427,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.072680463717056</v>
+        <v>0.998417457385777</v>
       </c>
       <c r="D15">
-        <v>0.9811661573293712</v>
+        <v>1.000475110494009</v>
       </c>
       <c r="E15">
-        <v>0.9830245918534591</v>
+        <v>1.000252584110811</v>
       </c>
       <c r="F15">
-        <v>1.072680463717056</v>
+        <v>0.998417457385777</v>
       </c>
       <c r="G15">
-        <v>0.9494224432153225</v>
+        <v>1.001309339523482</v>
       </c>
       <c r="H15">
-        <v>1.040404348898871</v>
+        <v>0.999078105814253</v>
       </c>
       <c r="I15">
-        <v>0.9830245918534591</v>
+        <v>1.000252584110811</v>
       </c>
       <c r="J15">
-        <v>0.9817079847949673</v>
+        <v>1.000410232294975</v>
       </c>
       <c r="K15">
-        <v>0.9830245918534591</v>
+        <v>1.000252584110811</v>
       </c>
       <c r="L15">
-        <v>0.9811661573293712</v>
+        <v>1.000475110494009</v>
       </c>
       <c r="M15">
-        <v>1.026923310523214</v>
+        <v>0.999446283939893</v>
       </c>
       <c r="N15">
-        <v>1.026923310523214</v>
+        <v>0.999446283939893</v>
       </c>
       <c r="O15">
-        <v>1.031416989981766</v>
+        <v>0.999323557898013</v>
       </c>
       <c r="P15">
-        <v>1.012290404299962</v>
+        <v>0.9997150506635325</v>
       </c>
       <c r="Q15">
-        <v>1.012290404299962</v>
+        <v>0.9997150506635325</v>
       </c>
       <c r="R15">
-        <v>1.004973951188336</v>
+        <v>0.9998494340253522</v>
       </c>
       <c r="S15">
-        <v>1.004973951188336</v>
+        <v>0.9998494340253522</v>
       </c>
       <c r="T15">
-        <v>1.001400998301508</v>
+        <v>0.9999904716038847</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1432,58 +1489,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.9689097110013526</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="D16">
-        <v>1.009121441050548</v>
+        <v>1.000918454697044</v>
       </c>
       <c r="E16">
-        <v>1.005344596364361</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="F16">
-        <v>0.9689097110013526</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="G16">
-        <v>1.025043251916226</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="H16">
-        <v>0.9820262761769459</v>
+        <v>0.9982204285355658</v>
       </c>
       <c r="I16">
-        <v>1.005344596364361</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="J16">
-        <v>1.008020322393723</v>
+        <v>1.000791678992289</v>
       </c>
       <c r="K16">
-        <v>1.005344596364361</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="L16">
-        <v>1.009121441050548</v>
+        <v>1.000918454697044</v>
       </c>
       <c r="M16">
-        <v>0.98901557602595</v>
+        <v>0.998932916627017</v>
       </c>
       <c r="N16">
-        <v>0.98901557602595</v>
+        <v>0.998932916627017</v>
       </c>
       <c r="O16">
-        <v>0.9866858094096154</v>
+        <v>0.9986954205965333</v>
       </c>
       <c r="P16">
-        <v>0.9944585828054203</v>
+        <v>0.9994498169638431</v>
       </c>
       <c r="Q16">
-        <v>0.9944585828054203</v>
+        <v>0.9994498169638431</v>
       </c>
       <c r="R16">
-        <v>0.9971800861951554</v>
+        <v>0.9997082671322561</v>
       </c>
       <c r="S16">
-        <v>0.9971800861951554</v>
+        <v>0.9997082671322561</v>
       </c>
       <c r="T16">
-        <v>0.9997442664838595</v>
+        <v>0.9999822652164231</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1494,58 +1551,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9741518358116981</v>
+        <v>0.9941257153295334</v>
       </c>
       <c r="D17">
-        <v>1.00715139285431</v>
+        <v>1.001747605040423</v>
       </c>
       <c r="E17">
-        <v>1.005221200660163</v>
+        <v>1.000966309005693</v>
       </c>
       <c r="F17">
-        <v>0.9741518358116981</v>
+        <v>0.9941257153295334</v>
       </c>
       <c r="G17">
-        <v>1.019438040978662</v>
+        <v>1.004809098569759</v>
       </c>
       <c r="H17">
-        <v>0.9853368121090481</v>
+        <v>0.9965883276329442</v>
       </c>
       <c r="I17">
-        <v>1.005221200660163</v>
+        <v>1.000966309005693</v>
       </c>
       <c r="J17">
-        <v>1.006588655112215</v>
+        <v>1.001519824243118</v>
       </c>
       <c r="K17">
-        <v>1.005221200660163</v>
+        <v>1.000966309005693</v>
       </c>
       <c r="L17">
-        <v>1.00715139285431</v>
+        <v>1.001747605040423</v>
       </c>
       <c r="M17">
-        <v>0.9906516143330042</v>
+        <v>0.9979366601849784</v>
       </c>
       <c r="N17">
-        <v>0.9906516143330042</v>
+        <v>0.9979366601849784</v>
       </c>
       <c r="O17">
-        <v>0.9888800135916855</v>
+        <v>0.997487216000967</v>
       </c>
       <c r="P17">
-        <v>0.9955081431087239</v>
+        <v>0.9989465431252165</v>
       </c>
       <c r="Q17">
-        <v>0.9955081431087239</v>
+        <v>0.9989465431252165</v>
       </c>
       <c r="R17">
-        <v>0.9979364074965837</v>
+        <v>0.9994514845953355</v>
       </c>
       <c r="S17">
-        <v>0.9979364074965837</v>
+        <v>0.9994514845953355</v>
       </c>
       <c r="T17">
-        <v>0.9996479895876828</v>
+        <v>0.999959479970245</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1556,58 +1613,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9849810648624727</v>
+        <v>0.9913725499258402</v>
       </c>
       <c r="D18">
-        <v>1.00313999994478</v>
+        <v>1.002557141953514</v>
       </c>
       <c r="E18">
-        <v>1.004861258239289</v>
+        <v>1.001436347624764</v>
       </c>
       <c r="F18">
-        <v>0.9849810648624727</v>
+        <v>0.9913725499258402</v>
       </c>
       <c r="G18">
-        <v>1.008045461036991</v>
+        <v>1.007032548113844</v>
       </c>
       <c r="H18">
-        <v>0.9921379376009423</v>
+        <v>0.9949955221821767</v>
       </c>
       <c r="I18">
-        <v>1.004861258239289</v>
+        <v>1.001436347624764</v>
       </c>
       <c r="J18">
-        <v>1.003641822513218</v>
+        <v>1.002230380350176</v>
       </c>
       <c r="K18">
-        <v>1.004861258239289</v>
+        <v>1.001436347624764</v>
       </c>
       <c r="L18">
-        <v>1.00313999994478</v>
+        <v>1.002557141953514</v>
       </c>
       <c r="M18">
-        <v>0.9940605324036262</v>
+        <v>0.9969648459396772</v>
       </c>
       <c r="N18">
-        <v>0.9940605324036262</v>
+        <v>0.9969648459396772</v>
       </c>
       <c r="O18">
-        <v>0.9934196674693982</v>
+        <v>0.9963084046871771</v>
       </c>
       <c r="P18">
-        <v>0.997660774348847</v>
+        <v>0.9984553465013729</v>
       </c>
       <c r="Q18">
-        <v>0.9976607743488471</v>
+        <v>0.9984553465013729</v>
       </c>
       <c r="R18">
-        <v>0.9994608953214577</v>
+        <v>0.9992005967822208</v>
       </c>
       <c r="S18">
-        <v>0.9994608953214577</v>
+        <v>0.9992005967822208</v>
       </c>
       <c r="T18">
-        <v>0.9994679240329489</v>
+        <v>0.9999374150250526</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1618,58 +1675,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>0.9825261832867465</v>
+        <v>0.9999417582930989</v>
       </c>
       <c r="D19">
-        <v>1.003502097975585</v>
+        <v>1.000008310364364</v>
       </c>
       <c r="E19">
-        <v>1.005927892849819</v>
+        <v>1.000025814220723</v>
       </c>
       <c r="F19">
-        <v>0.9825261832867465</v>
+        <v>0.9999417582930989</v>
       </c>
       <c r="G19">
-        <v>1.008876871757501</v>
+        <v>1.000018818678323</v>
       </c>
       <c r="H19">
-        <v>0.9909507988459104</v>
+        <v>0.999972020949612</v>
       </c>
       <c r="I19">
-        <v>1.005927892849819</v>
+        <v>1.000025814220723</v>
       </c>
       <c r="J19">
-        <v>1.004209331544818</v>
+        <v>1.000013411571022</v>
       </c>
       <c r="K19">
-        <v>1.005927892849819</v>
+        <v>1.000025814220723</v>
       </c>
       <c r="L19">
-        <v>1.003502097975585</v>
+        <v>1.000008310364364</v>
       </c>
       <c r="M19">
-        <v>0.9930141406311659</v>
+        <v>0.9999750343287315</v>
       </c>
       <c r="N19">
-        <v>0.9930141406311659</v>
+        <v>0.9999750343287315</v>
       </c>
       <c r="O19">
-        <v>0.9923263600360808</v>
+        <v>0.9999740298690249</v>
       </c>
       <c r="P19">
-        <v>0.9973187247040501</v>
+        <v>0.9999919609593952</v>
       </c>
       <c r="Q19">
-        <v>0.9973187247040501</v>
+        <v>0.9999919609593952</v>
       </c>
       <c r="R19">
-        <v>0.9994710167404923</v>
+        <v>1.000000424274727</v>
       </c>
       <c r="S19">
-        <v>0.9994710167404923</v>
+        <v>1.000000424274727</v>
       </c>
       <c r="T19">
-        <v>0.9993321960433965</v>
+        <v>0.9999966890128572</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1680,58 +1737,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.9999655756815365</v>
+        <v>0.9999629627462964</v>
       </c>
       <c r="D20">
-        <v>0.9999876331927574</v>
+        <v>0.9999953532520527</v>
       </c>
       <c r="E20">
-        <v>1.000046361193685</v>
+        <v>1.000034294730554</v>
       </c>
       <c r="F20">
-        <v>0.9999655756815365</v>
+        <v>0.9999629627462964</v>
       </c>
       <c r="G20">
-        <v>0.9999558269506368</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="H20">
-        <v>0.9999946610079113</v>
+        <v>0.999988644663606</v>
       </c>
       <c r="I20">
-        <v>1.000046361193685</v>
+        <v>1.000034294730554</v>
       </c>
       <c r="J20">
-        <v>1.000004753055766</v>
+        <v>1.000006704209319</v>
       </c>
       <c r="K20">
-        <v>1.000046361193685</v>
+        <v>1.000034294730554</v>
       </c>
       <c r="L20">
-        <v>0.9999876331927574</v>
+        <v>0.9999953532520527</v>
       </c>
       <c r="M20">
-        <v>0.999976604437147</v>
+        <v>0.9999791579991746</v>
       </c>
       <c r="N20">
-        <v>0.999976604437147</v>
+        <v>0.9999791579991746</v>
       </c>
       <c r="O20">
-        <v>0.9999826232940684</v>
+        <v>0.9999823202206518</v>
       </c>
       <c r="P20">
-        <v>0.9999998566893263</v>
+        <v>0.9999975369096342</v>
       </c>
       <c r="Q20">
-        <v>0.9999998566893263</v>
+        <v>0.9999975369096342</v>
       </c>
       <c r="R20">
-        <v>1.000011482815416</v>
+        <v>1.000006726364864</v>
       </c>
       <c r="S20">
-        <v>1.000011482815416</v>
+        <v>1.000006726364864</v>
       </c>
       <c r="T20">
-        <v>0.9999924685137156</v>
+        <v>0.9999946902658839</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1742,58 +1799,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>0.9998779240781555</v>
+        <v>1.000152453616179</v>
       </c>
       <c r="D21">
-        <v>1.000049939544589</v>
+        <v>0.9999471284895873</v>
       </c>
       <c r="E21">
-        <v>0.9999955658476287</v>
+        <v>0.9999884561728483</v>
       </c>
       <c r="F21">
-        <v>0.9998779240781555</v>
+        <v>1.000152453616179</v>
       </c>
       <c r="G21">
-        <v>1.000143519341251</v>
+        <v>0.9998511278963021</v>
       </c>
       <c r="H21">
-        <v>0.9999202777078704</v>
+        <v>1.000093416764784</v>
       </c>
       <c r="I21">
-        <v>0.9999955658476287</v>
+        <v>0.9999884561728483</v>
       </c>
       <c r="J21">
-        <v>1.000034085450207</v>
+        <v>0.9999591748055757</v>
       </c>
       <c r="K21">
-        <v>0.9999955658476287</v>
+        <v>0.9999884561728483</v>
       </c>
       <c r="L21">
-        <v>1.000049939544589</v>
+        <v>0.9999471284895873</v>
       </c>
       <c r="M21">
-        <v>0.9999639318113721</v>
+        <v>1.000049791052883</v>
       </c>
       <c r="N21">
-        <v>0.9999639318113721</v>
+        <v>1.000049791052883</v>
       </c>
       <c r="O21">
-        <v>0.9999493804435383</v>
+        <v>1.00006433295685</v>
       </c>
       <c r="P21">
-        <v>0.9999744764901243</v>
+        <v>1.000029346092872</v>
       </c>
       <c r="Q21">
-        <v>0.9999744764901243</v>
+        <v>1.000029346092872</v>
       </c>
       <c r="R21">
-        <v>0.9999797488295004</v>
+        <v>1.000019123612866</v>
       </c>
       <c r="S21">
-        <v>0.9999797488295004</v>
+        <v>1.000019123612866</v>
       </c>
       <c r="T21">
-        <v>1.00000355199495</v>
+        <v>0.9999986262908794</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1804,58 +1861,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>0.9994477109054802</v>
+        <v>1.000141760205109</v>
       </c>
       <c r="D22">
-        <v>1.000112863738293</v>
+        <v>0.9999270877467316</v>
       </c>
       <c r="E22">
-        <v>1.000183448643837</v>
+        <v>1.000032012198073</v>
       </c>
       <c r="F22">
-        <v>0.9994477109054802</v>
+        <v>1.000141760205109</v>
       </c>
       <c r="G22">
-        <v>1.000287516832997</v>
+        <v>0.9997855729726347</v>
       </c>
       <c r="H22">
-        <v>0.9997125795757036</v>
+        <v>1.000102254345857</v>
       </c>
       <c r="I22">
-        <v>1.000183448643837</v>
+        <v>1.000032012198073</v>
       </c>
       <c r="J22">
-        <v>1.000133443719112</v>
+        <v>0.9999576768475392</v>
       </c>
       <c r="K22">
-        <v>1.000183448643837</v>
+        <v>1.000032012198073</v>
       </c>
       <c r="L22">
-        <v>1.000112863738293</v>
+        <v>0.9999270877467316</v>
       </c>
       <c r="M22">
-        <v>0.9997802873218866</v>
+        <v>1.00003442397592</v>
       </c>
       <c r="N22">
-        <v>0.9997802873218866</v>
+        <v>1.00003442397592</v>
       </c>
       <c r="O22">
-        <v>0.9997577180731589</v>
+        <v>1.000057034099233</v>
       </c>
       <c r="P22">
-        <v>0.9999146744292032</v>
+        <v>1.000033620049971</v>
       </c>
       <c r="Q22">
-        <v>0.9999146744292032</v>
+        <v>1.000033620049971</v>
       </c>
       <c r="R22">
-        <v>0.9999818679828616</v>
+        <v>1.000033218086997</v>
       </c>
       <c r="S22">
-        <v>0.9999818679828616</v>
+        <v>1.000033218086997</v>
       </c>
       <c r="T22">
-        <v>0.9999795939025701</v>
+        <v>0.9999910607193242</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1866,58 +1923,1236 @@
         <v>21</v>
       </c>
       <c r="C23">
+        <v>1.000702043745861</v>
+      </c>
+      <c r="D23">
+        <v>0.9997740197104076</v>
+      </c>
+      <c r="E23">
+        <v>0.9999153296641975</v>
+      </c>
+      <c r="F23">
+        <v>1.000702043745861</v>
+      </c>
+      <c r="G23">
+        <v>0.9993704709480303</v>
+      </c>
+      <c r="H23">
+        <v>1.000418829717386</v>
+      </c>
+      <c r="I23">
+        <v>0.9999153296641975</v>
+      </c>
+      <c r="J23">
+        <v>0.9998152198542388</v>
+      </c>
+      <c r="K23">
+        <v>0.9999153296641975</v>
+      </c>
+      <c r="L23">
+        <v>0.9997740197104076</v>
+      </c>
+      <c r="M23">
+        <v>1.000238031728134</v>
+      </c>
+      <c r="N23">
+        <v>1.000238031728134</v>
+      </c>
+      <c r="O23">
+        <v>1.000298297724552</v>
+      </c>
+      <c r="P23">
+        <v>1.000130464373489</v>
+      </c>
+      <c r="Q23">
+        <v>1.000130464373489</v>
+      </c>
+      <c r="R23">
+        <v>1.000076680696166</v>
+      </c>
+      <c r="S23">
+        <v>1.000076680696166</v>
+      </c>
+      <c r="T23">
+        <v>0.9999993189400204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9973719629308202</v>
+      </c>
+      <c r="D24">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="E24">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="F24">
+        <v>0.9973719629308202</v>
+      </c>
+      <c r="G24">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="H24">
+        <v>0.9984197460422126</v>
+      </c>
+      <c r="I24">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="J24">
+        <v>1.00069522627891</v>
+      </c>
+      <c r="K24">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="L24">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="M24">
+        <v>0.9991185201996193</v>
+      </c>
+      <c r="N24">
+        <v>0.9991185201996193</v>
+      </c>
+      <c r="O24">
+        <v>0.9988855954804837</v>
+      </c>
+      <c r="P24">
+        <v>0.999506507453871</v>
+      </c>
+      <c r="Q24">
+        <v>0.999506507453871</v>
+      </c>
+      <c r="R24">
+        <v>0.9997005010809968</v>
+      </c>
+      <c r="S24">
+        <v>0.9997005010809968</v>
+      </c>
+      <c r="T24">
+        <v>1.000008725422921</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.9990817833146899</v>
+      </c>
+      <c r="D25">
+        <v>1.000129187227138</v>
+      </c>
+      <c r="E25">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="F25">
+        <v>0.9990817833146899</v>
+      </c>
+      <c r="G25">
+        <v>1.000290957719287</v>
+      </c>
+      <c r="H25">
+        <v>0.9995600236539687</v>
+      </c>
+      <c r="I25">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="J25">
+        <v>1.000211121594492</v>
+      </c>
+      <c r="K25">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="L25">
+        <v>1.000129187227138</v>
+      </c>
+      <c r="M25">
+        <v>0.9996054852709138</v>
+      </c>
+      <c r="N25">
+        <v>0.9996054852709138</v>
+      </c>
+      <c r="O25">
+        <v>0.9995903313985988</v>
+      </c>
+      <c r="P25">
+        <v>0.9998737324478112</v>
+      </c>
+      <c r="Q25">
+        <v>0.9998737324478112</v>
+      </c>
+      <c r="R25">
+        <v>1.00000785603626</v>
+      </c>
+      <c r="S25">
+        <v>1.00000785603626</v>
+      </c>
+      <c r="T25">
+        <v>0.99994721671853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>1.277954329490422</v>
+      </c>
+      <c r="D26">
+        <v>0.9320461621327375</v>
+      </c>
+      <c r="E26">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="F26">
+        <v>1.277954329490422</v>
+      </c>
+      <c r="G26">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="H26">
+        <v>1.151880390641586</v>
+      </c>
+      <c r="I26">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="J26">
+        <v>0.9307933079817121</v>
+      </c>
+      <c r="K26">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="L26">
+        <v>0.9320461621327375</v>
+      </c>
+      <c r="M26">
+        <v>1.10500024581158</v>
+      </c>
+      <c r="N26">
+        <v>1.10500024581158</v>
+      </c>
+      <c r="O26">
+        <v>1.120626960754915</v>
+      </c>
+      <c r="P26">
+        <v>1.045916454978769</v>
+      </c>
+      <c r="Q26">
+        <v>1.045916454978769</v>
+      </c>
+      <c r="R26">
+        <v>1.016374559562363</v>
+      </c>
+      <c r="S26">
+        <v>1.016374559562363</v>
+      </c>
+      <c r="T26">
+        <v>1.006671893190858</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="D27">
+        <v>0.9811661573293712</v>
+      </c>
+      <c r="E27">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="F27">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="G27">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="H27">
+        <v>1.040404348898871</v>
+      </c>
+      <c r="I27">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="J27">
+        <v>0.9817079847949673</v>
+      </c>
+      <c r="K27">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="L27">
+        <v>0.9811661573293712</v>
+      </c>
+      <c r="M27">
+        <v>1.026923310523214</v>
+      </c>
+      <c r="N27">
+        <v>1.026923310523214</v>
+      </c>
+      <c r="O27">
+        <v>1.031416989981766</v>
+      </c>
+      <c r="P27">
+        <v>1.012290404299962</v>
+      </c>
+      <c r="Q27">
+        <v>1.012290404299962</v>
+      </c>
+      <c r="R27">
+        <v>1.004973951188336</v>
+      </c>
+      <c r="S27">
+        <v>1.004973951188336</v>
+      </c>
+      <c r="T27">
+        <v>1.001400998301508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>0.9689097110013526</v>
+      </c>
+      <c r="D28">
+        <v>1.009121441050548</v>
+      </c>
+      <c r="E28">
+        <v>1.005344596364361</v>
+      </c>
+      <c r="F28">
+        <v>0.9689097110013526</v>
+      </c>
+      <c r="G28">
+        <v>1.025043251916226</v>
+      </c>
+      <c r="H28">
+        <v>0.9820262761769459</v>
+      </c>
+      <c r="I28">
+        <v>1.005344596364361</v>
+      </c>
+      <c r="J28">
+        <v>1.008020322393723</v>
+      </c>
+      <c r="K28">
+        <v>1.005344596364361</v>
+      </c>
+      <c r="L28">
+        <v>1.009121441050548</v>
+      </c>
+      <c r="M28">
+        <v>0.98901557602595</v>
+      </c>
+      <c r="N28">
+        <v>0.98901557602595</v>
+      </c>
+      <c r="O28">
+        <v>0.9866858094096154</v>
+      </c>
+      <c r="P28">
+        <v>0.9944585828054203</v>
+      </c>
+      <c r="Q28">
+        <v>0.9944585828054203</v>
+      </c>
+      <c r="R28">
+        <v>0.9971800861951554</v>
+      </c>
+      <c r="S28">
+        <v>0.9971800861951554</v>
+      </c>
+      <c r="T28">
+        <v>0.9997442664838595</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>0.9741518358116981</v>
+      </c>
+      <c r="D29">
+        <v>1.00715139285431</v>
+      </c>
+      <c r="E29">
+        <v>1.005221200660163</v>
+      </c>
+      <c r="F29">
+        <v>0.9741518358116981</v>
+      </c>
+      <c r="G29">
+        <v>1.019438040978662</v>
+      </c>
+      <c r="H29">
+        <v>0.9853368121090481</v>
+      </c>
+      <c r="I29">
+        <v>1.005221200660163</v>
+      </c>
+      <c r="J29">
+        <v>1.006588655112215</v>
+      </c>
+      <c r="K29">
+        <v>1.005221200660163</v>
+      </c>
+      <c r="L29">
+        <v>1.00715139285431</v>
+      </c>
+      <c r="M29">
+        <v>0.9906516143330042</v>
+      </c>
+      <c r="N29">
+        <v>0.9906516143330042</v>
+      </c>
+      <c r="O29">
+        <v>0.9888800135916855</v>
+      </c>
+      <c r="P29">
+        <v>0.9955081431087239</v>
+      </c>
+      <c r="Q29">
+        <v>0.9955081431087239</v>
+      </c>
+      <c r="R29">
+        <v>0.9979364074965837</v>
+      </c>
+      <c r="S29">
+        <v>0.9979364074965837</v>
+      </c>
+      <c r="T29">
+        <v>0.9996479895876828</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>0.9849810648624727</v>
+      </c>
+      <c r="D30">
+        <v>1.00313999994478</v>
+      </c>
+      <c r="E30">
+        <v>1.004861258239289</v>
+      </c>
+      <c r="F30">
+        <v>0.9849810648624727</v>
+      </c>
+      <c r="G30">
+        <v>1.008045461036991</v>
+      </c>
+      <c r="H30">
+        <v>0.9921379376009423</v>
+      </c>
+      <c r="I30">
+        <v>1.004861258239289</v>
+      </c>
+      <c r="J30">
+        <v>1.003641822513218</v>
+      </c>
+      <c r="K30">
+        <v>1.004861258239289</v>
+      </c>
+      <c r="L30">
+        <v>1.00313999994478</v>
+      </c>
+      <c r="M30">
+        <v>0.9940605324036262</v>
+      </c>
+      <c r="N30">
+        <v>0.9940605324036262</v>
+      </c>
+      <c r="O30">
+        <v>0.9934196674693982</v>
+      </c>
+      <c r="P30">
+        <v>0.997660774348847</v>
+      </c>
+      <c r="Q30">
+        <v>0.9976607743488471</v>
+      </c>
+      <c r="R30">
+        <v>0.9994608953214577</v>
+      </c>
+      <c r="S30">
+        <v>0.9994608953214577</v>
+      </c>
+      <c r="T30">
+        <v>0.9994679240329489</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
+        <v>0.9825261832867465</v>
+      </c>
+      <c r="D31">
+        <v>1.003502097975585</v>
+      </c>
+      <c r="E31">
+        <v>1.005927892849819</v>
+      </c>
+      <c r="F31">
+        <v>0.9825261832867465</v>
+      </c>
+      <c r="G31">
+        <v>1.008876871757501</v>
+      </c>
+      <c r="H31">
+        <v>0.9909507988459104</v>
+      </c>
+      <c r="I31">
+        <v>1.005927892849819</v>
+      </c>
+      <c r="J31">
+        <v>1.004209331544818</v>
+      </c>
+      <c r="K31">
+        <v>1.005927892849819</v>
+      </c>
+      <c r="L31">
+        <v>1.003502097975585</v>
+      </c>
+      <c r="M31">
+        <v>0.9930141406311659</v>
+      </c>
+      <c r="N31">
+        <v>0.9930141406311659</v>
+      </c>
+      <c r="O31">
+        <v>0.9923263600360808</v>
+      </c>
+      <c r="P31">
+        <v>0.9973187247040501</v>
+      </c>
+      <c r="Q31">
+        <v>0.9973187247040501</v>
+      </c>
+      <c r="R31">
+        <v>0.9994710167404923</v>
+      </c>
+      <c r="S31">
+        <v>0.9994710167404923</v>
+      </c>
+      <c r="T31">
+        <v>0.9993321960433965</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32">
+        <v>0.9699554873972599</v>
+      </c>
+      <c r="D32">
+        <v>1.00954316520548</v>
+      </c>
+      <c r="E32">
+        <v>1.003853444520548</v>
+      </c>
+      <c r="F32">
+        <v>0.9699554873972599</v>
+      </c>
+      <c r="G32">
+        <v>1.026532212465753</v>
+      </c>
+      <c r="H32">
+        <v>0.9821587600000001</v>
+      </c>
+      <c r="I32">
+        <v>1.003853444520548</v>
+      </c>
+      <c r="J32">
+        <v>1.007884358356164</v>
+      </c>
+      <c r="K32">
+        <v>1.003853444520548</v>
+      </c>
+      <c r="L32">
+        <v>1.00954316520548</v>
+      </c>
+      <c r="M32">
+        <v>0.9897493263013697</v>
+      </c>
+      <c r="N32">
+        <v>0.9897493263013697</v>
+      </c>
+      <c r="O32">
+        <v>0.9872191375342464</v>
+      </c>
+      <c r="P32">
+        <v>0.9944506990410957</v>
+      </c>
+      <c r="Q32">
+        <v>0.9944506990410957</v>
+      </c>
+      <c r="R32">
+        <v>0.9968013854109588</v>
+      </c>
+      <c r="S32">
+        <v>0.9968013854109588</v>
+      </c>
+      <c r="T32">
+        <v>0.9999879046575342</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1.140071708421053</v>
+      </c>
+      <c r="D33">
+        <v>0.9634751726315791</v>
+      </c>
+      <c r="E33">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="F33">
+        <v>1.140071708421053</v>
+      </c>
+      <c r="G33">
+        <v>0.9017967668421052</v>
+      </c>
+      <c r="H33">
+        <v>1.078015924210526</v>
+      </c>
+      <c r="I33">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="J33">
+        <v>0.9647052863157896</v>
+      </c>
+      <c r="K33">
+        <v>0.9676944963157896</v>
+      </c>
+      <c r="L33">
+        <v>0.9634751726315791</v>
+      </c>
+      <c r="M33">
+        <v>1.051773440526316</v>
+      </c>
+      <c r="N33">
+        <v>1.051773440526316</v>
+      </c>
+      <c r="O33">
+        <v>1.06052093508772</v>
+      </c>
+      <c r="P33">
+        <v>1.023747125789474</v>
+      </c>
+      <c r="Q33">
+        <v>1.023747125789474</v>
+      </c>
+      <c r="R33">
+        <v>1.009733968421053</v>
+      </c>
+      <c r="S33">
+        <v>1.009733968421053</v>
+      </c>
+      <c r="T33">
+        <v>1.002626559122807</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34">
+        <v>0.973720025263158</v>
+      </c>
+      <c r="D34">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="E34">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="F34">
+        <v>0.973720025263158</v>
+      </c>
+      <c r="G34">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="H34">
+        <v>0.9843569942105262</v>
+      </c>
+      <c r="I34">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="J34">
+        <v>1.006907015789474</v>
+      </c>
+      <c r="K34">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="L34">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="M34">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="N34">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="O34">
+        <v>0.9888273077192983</v>
+      </c>
+      <c r="P34">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="Q34">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="R34">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="S34">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="T34">
+        <v>1.000007965</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35">
+        <v>0.9361923857285969</v>
+      </c>
+      <c r="D35">
+        <v>1.012429972613905</v>
+      </c>
+      <c r="E35">
+        <v>1.022291365730696</v>
+      </c>
+      <c r="F35">
+        <v>0.9361923857285969</v>
+      </c>
+      <c r="G35">
+        <v>1.031268214437598</v>
+      </c>
+      <c r="H35">
+        <v>0.9671880250868423</v>
+      </c>
+      <c r="I35">
+        <v>1.022291365730696</v>
+      </c>
+      <c r="J35">
+        <v>1.015304997625049</v>
+      </c>
+      <c r="K35">
+        <v>1.022291365730696</v>
+      </c>
+      <c r="L35">
+        <v>1.012429972613905</v>
+      </c>
+      <c r="M35">
+        <v>0.9743111791712511</v>
+      </c>
+      <c r="N35">
+        <v>0.9743111791712511</v>
+      </c>
+      <c r="O35">
+        <v>0.9719367944764482</v>
+      </c>
+      <c r="P35">
+        <v>0.990304574691066</v>
+      </c>
+      <c r="Q35">
+        <v>0.990304574691066</v>
+      </c>
+      <c r="R35">
+        <v>0.9983012724509736</v>
+      </c>
+      <c r="S35">
+        <v>0.9983012724509736</v>
+      </c>
+      <c r="T35">
+        <v>0.997445826870448</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>34</v>
+      </c>
+      <c r="C36">
+        <v>0.9999655756815365</v>
+      </c>
+      <c r="D36">
+        <v>0.9999876331927574</v>
+      </c>
+      <c r="E36">
+        <v>1.000046361193685</v>
+      </c>
+      <c r="F36">
+        <v>0.9999655756815365</v>
+      </c>
+      <c r="G36">
+        <v>0.9999558269506368</v>
+      </c>
+      <c r="H36">
+        <v>0.9999946610079113</v>
+      </c>
+      <c r="I36">
+        <v>1.000046361193685</v>
+      </c>
+      <c r="J36">
+        <v>1.000004753055766</v>
+      </c>
+      <c r="K36">
+        <v>1.000046361193685</v>
+      </c>
+      <c r="L36">
+        <v>0.9999876331927574</v>
+      </c>
+      <c r="M36">
+        <v>0.999976604437147</v>
+      </c>
+      <c r="N36">
+        <v>0.999976604437147</v>
+      </c>
+      <c r="O36">
+        <v>0.9999826232940684</v>
+      </c>
+      <c r="P36">
+        <v>0.9999998566893263</v>
+      </c>
+      <c r="Q36">
+        <v>0.9999998566893263</v>
+      </c>
+      <c r="R36">
+        <v>1.000011482815416</v>
+      </c>
+      <c r="S36">
+        <v>1.000011482815416</v>
+      </c>
+      <c r="T36">
+        <v>0.9999924685137156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>35</v>
+      </c>
+      <c r="C37">
+        <v>0.9998779240781555</v>
+      </c>
+      <c r="D37">
+        <v>1.000049939544589</v>
+      </c>
+      <c r="E37">
+        <v>0.9999955658476287</v>
+      </c>
+      <c r="F37">
+        <v>0.9998779240781555</v>
+      </c>
+      <c r="G37">
+        <v>1.000143519341251</v>
+      </c>
+      <c r="H37">
+        <v>0.9999202777078704</v>
+      </c>
+      <c r="I37">
+        <v>0.9999955658476287</v>
+      </c>
+      <c r="J37">
+        <v>1.000034085450207</v>
+      </c>
+      <c r="K37">
+        <v>0.9999955658476287</v>
+      </c>
+      <c r="L37">
+        <v>1.000049939544589</v>
+      </c>
+      <c r="M37">
+        <v>0.9999639318113721</v>
+      </c>
+      <c r="N37">
+        <v>0.9999639318113721</v>
+      </c>
+      <c r="O37">
+        <v>0.9999493804435383</v>
+      </c>
+      <c r="P37">
+        <v>0.9999744764901243</v>
+      </c>
+      <c r="Q37">
+        <v>0.9999744764901243</v>
+      </c>
+      <c r="R37">
+        <v>0.9999797488295004</v>
+      </c>
+      <c r="S37">
+        <v>0.9999797488295004</v>
+      </c>
+      <c r="T37">
+        <v>1.00000355199495</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>0.9994477109054802</v>
+      </c>
+      <c r="D38">
+        <v>1.000112863738293</v>
+      </c>
+      <c r="E38">
+        <v>1.000183448643837</v>
+      </c>
+      <c r="F38">
+        <v>0.9994477109054802</v>
+      </c>
+      <c r="G38">
+        <v>1.000287516832997</v>
+      </c>
+      <c r="H38">
+        <v>0.9997125795757036</v>
+      </c>
+      <c r="I38">
+        <v>1.000183448643837</v>
+      </c>
+      <c r="J38">
+        <v>1.000133443719112</v>
+      </c>
+      <c r="K38">
+        <v>1.000183448643837</v>
+      </c>
+      <c r="L38">
+        <v>1.000112863738293</v>
+      </c>
+      <c r="M38">
+        <v>0.9997802873218866</v>
+      </c>
+      <c r="N38">
+        <v>0.9997802873218866</v>
+      </c>
+      <c r="O38">
+        <v>0.9997577180731589</v>
+      </c>
+      <c r="P38">
+        <v>0.9999146744292032</v>
+      </c>
+      <c r="Q38">
+        <v>0.9999146744292032</v>
+      </c>
+      <c r="R38">
+        <v>0.9999818679828616</v>
+      </c>
+      <c r="S38">
+        <v>0.9999818679828616</v>
+      </c>
+      <c r="T38">
+        <v>0.9999795939025701</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>37</v>
+      </c>
+      <c r="C39">
         <v>0.9986458786381561</v>
       </c>
-      <c r="D23">
+      <c r="D39">
         <v>1.000233419849397</v>
       </c>
-      <c r="E23">
+      <c r="E39">
         <v>1.000527720428362</v>
       </c>
-      <c r="F23">
+      <c r="F39">
         <v>0.9986458786381561</v>
       </c>
-      <c r="G23">
+      <c r="G39">
         <v>1.000566402307763</v>
       </c>
-      <c r="H23">
+      <c r="H39">
         <v>0.9993233418037238</v>
       </c>
-      <c r="I23">
+      <c r="I39">
         <v>1.000527720428362</v>
       </c>
-      <c r="J23">
+      <c r="J39">
         <v>1.000319225065965</v>
       </c>
-      <c r="K23">
+      <c r="K39">
         <v>1.000527720428362</v>
       </c>
-      <c r="L23">
+      <c r="L39">
         <v>1.000233419849397</v>
       </c>
-      <c r="M23">
+      <c r="M39">
         <v>0.9994396492437763</v>
       </c>
-      <c r="N23">
+      <c r="N39">
         <v>0.9994396492437763</v>
       </c>
-      <c r="O23">
+      <c r="O39">
         <v>0.9994008800970922</v>
       </c>
-      <c r="P23">
+      <c r="P39">
         <v>0.9998023396386383</v>
       </c>
-      <c r="Q23">
+      <c r="Q39">
         <v>0.9998023396386383</v>
       </c>
-      <c r="R23">
+      <c r="R39">
         <v>0.9999836848360693</v>
       </c>
-      <c r="S23">
+      <c r="S39">
         <v>0.9999836848360693</v>
       </c>
-      <c r="T23">
+      <c r="T39">
         <v>0.9999359980155612</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40">
+        <v>0.9896464078244349</v>
+      </c>
+      <c r="D40">
+        <v>1.001993370120277</v>
+      </c>
+      <c r="E40">
+        <v>1.003659455185878</v>
+      </c>
+      <c r="F40">
+        <v>0.9896464078244349</v>
+      </c>
+      <c r="G40">
+        <v>1.004998292311812</v>
+      </c>
+      <c r="H40">
+        <v>0.9946911076508101</v>
+      </c>
+      <c r="I40">
+        <v>1.003659455185878</v>
+      </c>
+      <c r="J40">
+        <v>1.002479105443938</v>
+      </c>
+      <c r="K40">
+        <v>1.003659455185878</v>
+      </c>
+      <c r="L40">
+        <v>1.001993370120277</v>
+      </c>
+      <c r="M40">
+        <v>0.9958198889723562</v>
+      </c>
+      <c r="N40">
+        <v>0.9958198889723562</v>
+      </c>
+      <c r="O40">
+        <v>0.9954436285318408</v>
+      </c>
+      <c r="P40">
+        <v>0.9984330777101968</v>
+      </c>
+      <c r="Q40">
+        <v>0.9984330777101968</v>
+      </c>
+      <c r="R40">
+        <v>0.9997396720791172</v>
+      </c>
+      <c r="S40">
+        <v>0.9997396720791172</v>
+      </c>
+      <c r="T40">
+        <v>0.9995779564228583</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41">
+        <v>0.9532256320648799</v>
+      </c>
+      <c r="D41">
+        <v>1.01165531591254</v>
+      </c>
+      <c r="E41">
+        <v>1.01176249316229</v>
+      </c>
+      <c r="F41">
+        <v>0.9532256320648799</v>
+      </c>
+      <c r="G41">
+        <v>1.031060416178911</v>
+      </c>
+      <c r="H41">
+        <v>0.9742989043774435</v>
+      </c>
+      <c r="I41">
+        <v>1.01176249316229</v>
+      </c>
+      <c r="J41">
+        <v>1.011686561154973</v>
+      </c>
+      <c r="K41">
+        <v>1.01176249316229</v>
+      </c>
+      <c r="L41">
+        <v>1.01165531591254</v>
+      </c>
+      <c r="M41">
+        <v>0.9824404739887098</v>
+      </c>
+      <c r="N41">
+        <v>0.9824404739887098</v>
+      </c>
+      <c r="O41">
+        <v>0.9797266174516212</v>
+      </c>
+      <c r="P41">
+        <v>0.9922144803799032</v>
+      </c>
+      <c r="Q41">
+        <v>0.9922144803799032</v>
+      </c>
+      <c r="R41">
+        <v>0.9971014835754999</v>
+      </c>
+      <c r="S41">
+        <v>0.9971014835754999</v>
+      </c>
+      <c r="T41">
+        <v>0.9989482204751728</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C42">
+        <v>0.9348732245195992</v>
+      </c>
+      <c r="D42">
+        <v>1.016317195627781</v>
+      </c>
+      <c r="E42">
+        <v>1.016217797495625</v>
+      </c>
+      <c r="F42">
+        <v>0.9348732245195992</v>
+      </c>
+      <c r="G42">
+        <v>1.043531437474624</v>
+      </c>
+      <c r="H42">
+        <v>0.9641572741304109</v>
+      </c>
+      <c r="I42">
+        <v>1.016217797495625</v>
+      </c>
+      <c r="J42">
+        <v>1.016288211198723</v>
+      </c>
+      <c r="K42">
+        <v>1.016217797495625</v>
+      </c>
+      <c r="L42">
+        <v>1.016317195627781</v>
+      </c>
+      <c r="M42">
+        <v>0.9755952100736901</v>
+      </c>
+      <c r="N42">
+        <v>0.9755952100736901</v>
+      </c>
+      <c r="O42">
+        <v>0.9717825647592636</v>
+      </c>
+      <c r="P42">
+        <v>0.9891360725476686</v>
+      </c>
+      <c r="Q42">
+        <v>0.9891360725476686</v>
+      </c>
+      <c r="R42">
+        <v>0.9959065037846577</v>
+      </c>
+      <c r="S42">
+        <v>0.9959065037846577</v>
+      </c>
+      <c r="T42">
+        <v>0.9985641900744606</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW35.xlsx
@@ -14,36 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>HKL</t>
   </si>
   <si>
-    <t>BT8Hex_2.5</t>
-  </si>
-  <si>
-    <t>BT8Hex_5</t>
-  </si>
-  <si>
-    <t>BT8Hex_10</t>
-  </si>
-  <si>
-    <t>BT8Hex_15</t>
-  </si>
-  <si>
-    <t>Spiral2.5</t>
-  </si>
-  <si>
     <t>Spiral5</t>
   </si>
   <si>
-    <t>Spiral7.5</t>
-  </si>
-  <si>
-    <t>Spiral10</t>
-  </si>
-  <si>
-    <t>Spiral15</t>
+    <t>RotRing OmegaMax-90</t>
+  </si>
+  <si>
+    <t>Equal Angle</t>
+  </si>
+  <si>
+    <t>Tilt Rotate</t>
+  </si>
+  <si>
+    <t>CLR</t>
+  </si>
+  <si>
+    <t>Rizzie Hex</t>
+  </si>
+  <si>
+    <t>Thomas Hex</t>
+  </si>
+  <si>
+    <t>Tilt Rotate_Partial</t>
+  </si>
+  <si>
+    <t>RotRing OmegaMax-60</t>
+  </si>
+  <si>
+    <t>Equal Angle_Partial</t>
+  </si>
+  <si>
+    <t>Rizzie Hex_Partial</t>
+  </si>
+  <si>
+    <t>ND Single</t>
+  </si>
+  <si>
+    <t>RD Single</t>
+  </si>
+  <si>
+    <t>TD Single</t>
+  </si>
+  <si>
+    <t>Morris Single</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to ND</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to RD</t>
+  </si>
+  <si>
+    <t>Ring Perpendicular to TD</t>
+  </si>
+  <si>
+    <t>OffsetFTD</t>
+  </si>
+  <si>
+    <t>OffsetATD</t>
   </si>
   <si>
     <t>OffsetF45</t>
@@ -52,46 +85,43 @@
     <t>OffsetA45</t>
   </si>
   <si>
-    <t>OffsetFTD</t>
-  </si>
-  <si>
-    <t>OffsetATD</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt2.5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt5degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt10degRes</t>
-  </si>
-  <si>
-    <t>HexGrid-90degTilt15degRes</t>
+    <t>OffsetFRD</t>
+  </si>
+  <si>
+    <t>OffsetARD</t>
+  </si>
+  <si>
+    <t>Gaussian Quadrature</t>
+  </si>
+  <si>
+    <t>Michael-CCHex</t>
+  </si>
+  <si>
+    <t>Michael-SNHex</t>
+  </si>
+  <si>
+    <t>[4, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 1, 1]</t>
+  </si>
+  <si>
+    <t>[2, 2, 0]</t>
+  </si>
+  <si>
+    <t>[2, 0, 0]</t>
+  </si>
+  <si>
+    <t>[2, 2, 2]</t>
+  </si>
+  <si>
+    <t>[3, 1, 0]</t>
   </si>
   <si>
     <t>[1, 1, 0]</t>
   </si>
   <si>
-    <t>[2, 0, 0]</t>
-  </si>
-  <si>
-    <t>[2, 1, 1]</t>
-  </si>
-  <si>
-    <t>[2, 2, 0]</t>
-  </si>
-  <si>
-    <t>[2, 2, 2]</t>
-  </si>
-  <si>
-    <t>[3, 1, 0]</t>
-  </si>
-  <si>
     <t>[3, 2, 1]</t>
-  </si>
-  <si>
-    <t>[4, 0, 0]</t>
   </si>
   <si>
     <t>1Pair-A</t>
@@ -479,13 +509,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD19"/>
+  <dimension ref="A1:T29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:30">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -543,38 +573,8 @@
       <c r="T1" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30">
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -582,91 +582,61 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="K2" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="L2" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N2" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
       <c r="O2" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="P2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="Q2" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="R2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="T2" t="s">
-        <v>35</v>
-      </c>
-      <c r="U2" t="s">
-        <v>26</v>
-      </c>
-      <c r="V2" t="s">
-        <v>27</v>
-      </c>
-      <c r="W2" t="s">
-        <v>28</v>
-      </c>
-      <c r="X2" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>31</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>32</v>
-      </c>
-      <c r="AB2" t="s">
-        <v>33</v>
-      </c>
-      <c r="AC2" t="s">
-        <v>34</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -674,61 +644,61 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>1.000252584110811</v>
+        <v>0.9999629627462964</v>
       </c>
       <c r="D3">
-        <v>0.998417457385777</v>
+        <v>0.9999953532520527</v>
       </c>
       <c r="E3">
-        <v>1.000475110494009</v>
+        <v>1.000034294730554</v>
       </c>
       <c r="F3">
-        <v>1.000252584110811</v>
+        <v>0.9999629627462964</v>
       </c>
       <c r="G3">
-        <v>1.001309339523482</v>
+        <v>0.999980181993475</v>
       </c>
       <c r="H3">
-        <v>0.999078105814253</v>
+        <v>0.999988644663606</v>
       </c>
       <c r="I3">
-        <v>1.000410232294975</v>
+        <v>1.000034294730554</v>
       </c>
       <c r="J3">
-        <v>0.998417457385777</v>
+        <v>1.000006704209319</v>
       </c>
       <c r="K3">
-        <v>1.000252584110811</v>
+        <v>1.000034294730554</v>
       </c>
       <c r="L3">
-        <v>1.000475110494009</v>
+        <v>0.9999953532520527</v>
       </c>
       <c r="M3">
-        <v>0.999446283939893</v>
+        <v>0.9999791579991746</v>
       </c>
       <c r="N3">
-        <v>0.999446283939893</v>
+        <v>0.9999791579991746</v>
       </c>
       <c r="O3">
-        <v>0.999323557898013</v>
+        <v>0.9999823202206518</v>
       </c>
       <c r="P3">
-        <v>0.9997150506635325</v>
+        <v>0.9999975369096342</v>
       </c>
       <c r="Q3">
-        <v>0.9997150506635325</v>
+        <v>0.9999975369096342</v>
       </c>
       <c r="R3">
-        <v>0.9998494340253522</v>
+        <v>1.000006726364864</v>
       </c>
       <c r="S3">
-        <v>0.9998494340253522</v>
+        <v>1.000006726364864</v>
       </c>
       <c r="T3">
-        <v>0.9999904716038847</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30">
+        <v>0.9999946902658839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -736,61 +706,61 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>1.000483617637495</v>
+        <v>0.9896464078244349</v>
       </c>
       <c r="D4">
-        <v>0.99694737855699</v>
+        <v>1.001993370120277</v>
       </c>
       <c r="E4">
-        <v>1.000918454697044</v>
+        <v>1.003659455185878</v>
       </c>
       <c r="F4">
-        <v>1.000483617637495</v>
+        <v>0.9896464078244349</v>
       </c>
       <c r="G4">
-        <v>1.002532032879154</v>
+        <v>1.004998292311812</v>
       </c>
       <c r="H4">
-        <v>0.9982204285355658</v>
+        <v>0.9946911076508101</v>
       </c>
       <c r="I4">
-        <v>1.000791678992289</v>
+        <v>1.003659455185878</v>
       </c>
       <c r="J4">
-        <v>0.99694737855699</v>
+        <v>1.002479105443938</v>
       </c>
       <c r="K4">
-        <v>1.000483617637495</v>
+        <v>1.003659455185878</v>
       </c>
       <c r="L4">
-        <v>1.000918454697044</v>
+        <v>1.001993370120277</v>
       </c>
       <c r="M4">
-        <v>0.998932916627017</v>
+        <v>0.9958198889723562</v>
       </c>
       <c r="N4">
-        <v>0.998932916627017</v>
+        <v>0.9958198889723562</v>
       </c>
       <c r="O4">
-        <v>0.9986954205965333</v>
+        <v>0.9954436285318408</v>
       </c>
       <c r="P4">
-        <v>0.9994498169638431</v>
+        <v>0.9984330777101968</v>
       </c>
       <c r="Q4">
-        <v>0.9994498169638431</v>
+        <v>0.9984330777101968</v>
       </c>
       <c r="R4">
-        <v>0.9997082671322561</v>
+        <v>0.9997396720791172</v>
       </c>
       <c r="S4">
-        <v>0.9997082671322561</v>
+        <v>0.9997396720791172</v>
       </c>
       <c r="T4">
-        <v>0.9999822652164231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30">
+        <v>0.9995779564228583</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -798,61 +768,61 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>1.000966309005693</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="D5">
-        <v>0.9941257153295334</v>
+        <v>1.003992870180115</v>
       </c>
       <c r="E5">
-        <v>1.001747605040423</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="F5">
-        <v>1.000966309005693</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="G5">
-        <v>1.004809098569759</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="H5">
-        <v>0.9965883276329442</v>
+        <v>0.9901617423847269</v>
       </c>
       <c r="I5">
-        <v>1.001519824243118</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="J5">
-        <v>0.9941257153295334</v>
+        <v>1.004547225475502</v>
       </c>
       <c r="K5">
-        <v>1.000966309005693</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="L5">
-        <v>1.001747605040423</v>
+        <v>1.003992870180115</v>
       </c>
       <c r="M5">
-        <v>0.9979366601849784</v>
+        <v>0.9926525168443798</v>
       </c>
       <c r="N5">
-        <v>0.9979366601849784</v>
+        <v>0.9926525168443798</v>
       </c>
       <c r="O5">
-        <v>0.997487216000967</v>
+        <v>0.9918222586911621</v>
       </c>
       <c r="P5">
-        <v>0.9989465431252165</v>
+        <v>0.9970664513616714</v>
       </c>
       <c r="Q5">
-        <v>0.9989465431252165</v>
+        <v>0.9970664513616714</v>
       </c>
       <c r="R5">
-        <v>0.9994514845953355</v>
+        <v>0.9992734186203172</v>
       </c>
       <c r="S5">
-        <v>0.9994514845953355</v>
+        <v>0.9992734186203172</v>
       </c>
       <c r="T5">
-        <v>0.999959479970245</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30">
+        <v>0.9993656313232463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -860,61 +830,61 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>1.001436347624764</v>
+        <v>0.9361923857285969</v>
       </c>
       <c r="D6">
-        <v>0.9913725499258402</v>
+        <v>1.012429972613905</v>
       </c>
       <c r="E6">
-        <v>1.002557141953514</v>
+        <v>1.022291365730696</v>
       </c>
       <c r="F6">
-        <v>1.001436347624764</v>
+        <v>0.9361923857285969</v>
       </c>
       <c r="G6">
-        <v>1.007032548113844</v>
+        <v>1.031268214437598</v>
       </c>
       <c r="H6">
-        <v>0.9949955221821767</v>
+        <v>0.9671880250868423</v>
       </c>
       <c r="I6">
-        <v>1.002230380350176</v>
+        <v>1.022291365730696</v>
       </c>
       <c r="J6">
-        <v>0.9913725499258402</v>
+        <v>1.015304997625049</v>
       </c>
       <c r="K6">
-        <v>1.001436347624764</v>
+        <v>1.022291365730696</v>
       </c>
       <c r="L6">
-        <v>1.002557141953514</v>
+        <v>1.012429972613905</v>
       </c>
       <c r="M6">
-        <v>0.9969648459396772</v>
+        <v>0.9743111791712511</v>
       </c>
       <c r="N6">
-        <v>0.9969648459396772</v>
+        <v>0.9743111791712511</v>
       </c>
       <c r="O6">
-        <v>0.9963084046871771</v>
+        <v>0.9719367944764482</v>
       </c>
       <c r="P6">
-        <v>0.9984553465013729</v>
+        <v>0.990304574691066</v>
       </c>
       <c r="Q6">
-        <v>0.9984553465013729</v>
+        <v>0.990304574691066</v>
       </c>
       <c r="R6">
-        <v>0.9992005967822208</v>
+        <v>0.9983012724509736</v>
       </c>
       <c r="S6">
-        <v>0.9992005967822208</v>
+        <v>0.9983012724509736</v>
       </c>
       <c r="T6">
-        <v>0.9999374150250526</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30">
+        <v>0.997445826870448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -922,61 +892,61 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>1.000025814220723</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="D7">
-        <v>0.9999417582930989</v>
+        <v>1.000554658191328</v>
       </c>
       <c r="E7">
-        <v>1.000008310364364</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="F7">
-        <v>1.000025814220723</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="G7">
-        <v>1.000018818678323</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="H7">
-        <v>0.9999720209496118</v>
+        <v>0.9989280212791537</v>
       </c>
       <c r="I7">
-        <v>1.000013411571022</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="J7">
-        <v>0.9999417582930989</v>
+        <v>1.000476672797012</v>
       </c>
       <c r="K7">
-        <v>1.000025814220723</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="L7">
-        <v>1.000008310364364</v>
+        <v>1.000554658191328</v>
       </c>
       <c r="M7">
-        <v>0.9999750343287312</v>
+        <v>0.9993590761956256</v>
       </c>
       <c r="N7">
-        <v>0.9999750343287312</v>
+        <v>0.9993590761956256</v>
       </c>
       <c r="O7">
-        <v>0.9999740298690248</v>
+        <v>0.9992153912234683</v>
       </c>
       <c r="P7">
-        <v>0.9999919609593949</v>
+        <v>0.9996684416332468</v>
       </c>
       <c r="Q7">
-        <v>0.9999919609593949</v>
+        <v>0.9996684416332468</v>
       </c>
       <c r="R7">
-        <v>1.000000424274727</v>
+        <v>0.9998231243520574</v>
       </c>
       <c r="S7">
-        <v>1.000000424274727</v>
+        <v>0.9998231243520574</v>
       </c>
       <c r="T7">
-        <v>0.999996689012857</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30">
+        <v>0.9999900081076646</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -984,61 +954,61 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>1.000034294730554</v>
+        <v>0.9998779240781555</v>
       </c>
       <c r="D8">
-        <v>0.999962962746296</v>
+        <v>1.000049939544589</v>
       </c>
       <c r="E8">
-        <v>0.9999953532520527</v>
+        <v>0.9999955658476287</v>
       </c>
       <c r="F8">
-        <v>1.000034294730554</v>
+        <v>0.9998779240781555</v>
       </c>
       <c r="G8">
-        <v>0.9999801819934753</v>
+        <v>1.000143519341251</v>
       </c>
       <c r="H8">
-        <v>0.9999886446636056</v>
+        <v>0.9999202777078704</v>
       </c>
       <c r="I8">
-        <v>1.000006704209319</v>
+        <v>0.9999955658476287</v>
       </c>
       <c r="J8">
-        <v>0.999962962746296</v>
+        <v>1.000034085450207</v>
       </c>
       <c r="K8">
-        <v>1.000034294730554</v>
+        <v>0.9999955658476287</v>
       </c>
       <c r="L8">
-        <v>0.9999953532520527</v>
+        <v>1.000049939544589</v>
       </c>
       <c r="M8">
-        <v>0.9999791579991744</v>
+        <v>0.9999639318113721</v>
       </c>
       <c r="N8">
-        <v>0.9999791579991744</v>
+        <v>0.9999639318113721</v>
       </c>
       <c r="O8">
-        <v>0.9999823202206515</v>
+        <v>0.9999493804435383</v>
       </c>
       <c r="P8">
-        <v>0.9999975369096341</v>
+        <v>0.9999744764901243</v>
       </c>
       <c r="Q8">
-        <v>0.9999975369096341</v>
+        <v>0.9999744764901243</v>
       </c>
       <c r="R8">
-        <v>1.000006726364864</v>
+        <v>0.9999797488295004</v>
       </c>
       <c r="S8">
-        <v>1.000006726364864</v>
+        <v>0.9999797488295004</v>
       </c>
       <c r="T8">
-        <v>0.9999946902658837</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30">
+        <v>1.00000355199495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1046,61 +1016,61 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.9999884561728483</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="D9">
-        <v>1.000152453616179</v>
+        <v>1.000918454697044</v>
       </c>
       <c r="E9">
-        <v>0.9999471284895873</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="F9">
-        <v>0.9999884561728483</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="G9">
-        <v>0.9998511278963021</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="H9">
-        <v>1.000093416764784</v>
+        <v>0.9982204285355658</v>
       </c>
       <c r="I9">
-        <v>0.9999591748055757</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="J9">
-        <v>1.000152453616179</v>
+        <v>1.000791678992289</v>
       </c>
       <c r="K9">
-        <v>0.9999884561728483</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="L9">
-        <v>0.9999471284895873</v>
+        <v>1.000918454697044</v>
       </c>
       <c r="M9">
-        <v>1.000049791052883</v>
+        <v>0.998932916627017</v>
       </c>
       <c r="N9">
-        <v>1.000049791052883</v>
+        <v>0.998932916627017</v>
       </c>
       <c r="O9">
-        <v>1.00006433295685</v>
+        <v>0.9986954205965333</v>
       </c>
       <c r="P9">
-        <v>1.000029346092872</v>
+        <v>0.9994498169638431</v>
       </c>
       <c r="Q9">
-        <v>1.000029346092872</v>
+        <v>0.9994498169638431</v>
       </c>
       <c r="R9">
-        <v>1.000019123612866</v>
+        <v>0.9997082671322561</v>
       </c>
       <c r="S9">
-        <v>1.000019123612866</v>
+        <v>0.9997082671322561</v>
       </c>
       <c r="T9">
-        <v>0.9999986262908794</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30">
+        <v>0.9999822652164231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1108,61 +1078,61 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.000032012198073</v>
+        <v>0.9351645491520044</v>
       </c>
       <c r="D10">
-        <v>1.000141760205109</v>
+        <v>1.012577159622414</v>
       </c>
       <c r="E10">
-        <v>0.9999270877467316</v>
+        <v>1.022745913986419</v>
       </c>
       <c r="F10">
-        <v>1.000032012198073</v>
+        <v>0.9351645491520044</v>
       </c>
       <c r="G10">
-        <v>0.9997855729726347</v>
+        <v>1.031602169890295</v>
       </c>
       <c r="H10">
-        <v>1.000102254345857</v>
+        <v>0.9666938463439014</v>
       </c>
       <c r="I10">
-        <v>0.9999576768475392</v>
+        <v>1.022745913986419</v>
       </c>
       <c r="J10">
-        <v>1.000141760205109</v>
+        <v>1.015541794900985</v>
       </c>
       <c r="K10">
-        <v>1.000032012198073</v>
+        <v>1.022745913986419</v>
       </c>
       <c r="L10">
-        <v>0.9999270877467316</v>
+        <v>1.012577159622414</v>
       </c>
       <c r="M10">
-        <v>1.00003442397592</v>
+        <v>0.9738708543872091</v>
       </c>
       <c r="N10">
-        <v>1.00003442397592</v>
+        <v>0.9738708543872091</v>
       </c>
       <c r="O10">
-        <v>1.000057034099233</v>
+        <v>0.9714785183727731</v>
       </c>
       <c r="P10">
-        <v>1.000033620049971</v>
+        <v>0.9901625409202793</v>
       </c>
       <c r="Q10">
-        <v>1.000033620049971</v>
+        <v>0.9901625409202793</v>
       </c>
       <c r="R10">
-        <v>1.000033218086997</v>
+        <v>0.9983083841868143</v>
       </c>
       <c r="S10">
-        <v>1.000033218086997</v>
+        <v>0.9983083841868143</v>
       </c>
       <c r="T10">
-        <v>0.9999910607193242</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30">
+        <v>0.9973875723160033</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1170,61 +1140,61 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9999153296641975</v>
+        <v>0.9347063259912063</v>
       </c>
       <c r="D11">
-        <v>1.000702043745861</v>
+        <v>1.015760450039149</v>
       </c>
       <c r="E11">
-        <v>0.9997740197104076</v>
+        <v>1.017336769534847</v>
       </c>
       <c r="F11">
-        <v>0.9999153296641975</v>
+        <v>0.9347063259912063</v>
       </c>
       <c r="G11">
-        <v>0.9993704709480303</v>
+        <v>1.041727600630298</v>
       </c>
       <c r="H11">
-        <v>1.000418829717386</v>
+        <v>0.9644532874801094</v>
       </c>
       <c r="I11">
-        <v>0.9998152198542388</v>
+        <v>1.017336769534847</v>
       </c>
       <c r="J11">
-        <v>1.000702043745861</v>
+        <v>1.016220014509265</v>
       </c>
       <c r="K11">
-        <v>0.9999153296641975</v>
+        <v>1.017336769534847</v>
       </c>
       <c r="L11">
-        <v>0.9997740197104076</v>
+        <v>1.015760450039149</v>
       </c>
       <c r="M11">
-        <v>1.000238031728134</v>
+        <v>0.9752333880151777</v>
       </c>
       <c r="N11">
-        <v>1.000238031728134</v>
+        <v>0.9752333880151777</v>
       </c>
       <c r="O11">
-        <v>1.000298297724552</v>
+        <v>0.9716400211701549</v>
       </c>
       <c r="P11">
-        <v>1.000130464373489</v>
+        <v>0.989267848521734</v>
       </c>
       <c r="Q11">
-        <v>1.000130464373489</v>
+        <v>0.989267848521734</v>
       </c>
       <c r="R11">
-        <v>1.000076680696166</v>
+        <v>0.9962850787750122</v>
       </c>
       <c r="S11">
-        <v>1.000076680696166</v>
+        <v>0.9962850787750122</v>
       </c>
       <c r="T11">
-        <v>0.9999993189400204</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30">
+        <v>0.9983674080308123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1232,61 +1202,61 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.000282481962374</v>
+        <v>0.9784028141789475</v>
       </c>
       <c r="D12">
-        <v>0.9973719629308202</v>
+        <v>1.004323406799999</v>
       </c>
       <c r="E12">
-        <v>1.000865077468418</v>
+        <v>1.007335899178949</v>
       </c>
       <c r="F12">
-        <v>1.000282481962374</v>
+        <v>0.9784028141789475</v>
       </c>
       <c r="G12">
-        <v>1.002417857854792</v>
+        <v>1.010955269684212</v>
       </c>
       <c r="H12">
-        <v>0.9984197460422127</v>
+        <v>0.9888187260315788</v>
       </c>
       <c r="I12">
-        <v>1.00069522627891</v>
+        <v>1.007335899178949</v>
       </c>
       <c r="J12">
-        <v>0.9973719629308202</v>
+        <v>1.005201680968421</v>
       </c>
       <c r="K12">
-        <v>1.000282481962374</v>
+        <v>1.007335899178949</v>
       </c>
       <c r="L12">
-        <v>1.000865077468418</v>
+        <v>1.004323406799999</v>
       </c>
       <c r="M12">
-        <v>0.9991185201996193</v>
+        <v>0.9913631104894731</v>
       </c>
       <c r="N12">
-        <v>0.9991185201996193</v>
+        <v>0.9913631104894731</v>
       </c>
       <c r="O12">
-        <v>0.9988855954804837</v>
+        <v>0.9905149823368417</v>
       </c>
       <c r="P12">
-        <v>0.999506507453871</v>
+        <v>0.9966873733859649</v>
       </c>
       <c r="Q12">
-        <v>0.999506507453871</v>
+        <v>0.9966873733859649</v>
       </c>
       <c r="R12">
-        <v>0.9997005010809968</v>
+        <v>0.9993495048342108</v>
       </c>
       <c r="S12">
-        <v>0.9997005010809968</v>
+        <v>0.9993495048342108</v>
       </c>
       <c r="T12">
-        <v>1.000008725422921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30">
+        <v>0.9991729661403511</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1294,61 +1264,61 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.000410226801606</v>
+        <v>1.011946021187304</v>
       </c>
       <c r="D13">
-        <v>0.9990817833146899</v>
+        <v>0.9971126153898674</v>
       </c>
       <c r="E13">
-        <v>1.000129187227138</v>
+        <v>0.9968350825022425</v>
       </c>
       <c r="F13">
-        <v>1.000410226801606</v>
+        <v>1.011946021187304</v>
       </c>
       <c r="G13">
-        <v>1.000290957719287</v>
+        <v>0.9923531615682246</v>
       </c>
       <c r="H13">
-        <v>0.9995600236539687</v>
+        <v>1.006506084113787</v>
       </c>
       <c r="I13">
-        <v>1.000211121594492</v>
+        <v>0.9968350825022425</v>
       </c>
       <c r="J13">
-        <v>0.9990817833146899</v>
+        <v>0.9970317014163405</v>
       </c>
       <c r="K13">
-        <v>1.000410226801606</v>
+        <v>0.9968350825022425</v>
       </c>
       <c r="L13">
-        <v>1.000129187227138</v>
+        <v>0.9971126153898674</v>
       </c>
       <c r="M13">
-        <v>0.9996054852709138</v>
+        <v>1.004529318288585</v>
       </c>
       <c r="N13">
-        <v>0.9996054852709138</v>
+        <v>1.004529318288585</v>
       </c>
       <c r="O13">
-        <v>0.9995903313985988</v>
+        <v>1.005188240230319</v>
       </c>
       <c r="P13">
-        <v>0.9998737324478113</v>
+        <v>1.001964573026471</v>
       </c>
       <c r="Q13">
-        <v>0.9998737324478113</v>
+        <v>1.001964573026471</v>
       </c>
       <c r="R13">
-        <v>1.00000785603626</v>
+        <v>1.000682200395414</v>
       </c>
       <c r="S13">
-        <v>1.00000785603626</v>
+        <v>1.000682200395414</v>
       </c>
       <c r="T13">
-        <v>0.9999472167185303</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30">
+        <v>1.000297444362961</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1356,61 +1326,61 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.9277488733131458</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="D14">
-        <v>1.277954329490422</v>
+        <v>1.0216333</v>
       </c>
       <c r="E14">
-        <v>0.9320461621327375</v>
+        <v>1.0396018</v>
       </c>
       <c r="F14">
-        <v>0.9277488733131458</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="G14">
-        <v>0.8196082955855434</v>
+        <v>1.0542662</v>
       </c>
       <c r="H14">
-        <v>1.151880390641586</v>
+        <v>0.9424470399999992</v>
       </c>
       <c r="I14">
-        <v>0.9307933079817121</v>
+        <v>1.0396018</v>
       </c>
       <c r="J14">
-        <v>1.277954329490422</v>
+        <v>1.026871900000002</v>
       </c>
       <c r="K14">
-        <v>0.9277488733131458</v>
+        <v>1.0396018</v>
       </c>
       <c r="L14">
-        <v>0.9320461621327375</v>
+        <v>1.0216333</v>
       </c>
       <c r="M14">
-        <v>1.10500024581158</v>
+        <v>0.9547153850000005</v>
       </c>
       <c r="N14">
-        <v>1.10500024581158</v>
+        <v>0.9547153850000005</v>
       </c>
       <c r="O14">
-        <v>1.120626960754915</v>
+        <v>0.9506259366666668</v>
       </c>
       <c r="P14">
-        <v>1.045916454978769</v>
+        <v>0.983010856666667</v>
       </c>
       <c r="Q14">
-        <v>1.045916454978769</v>
+        <v>0.983010856666667</v>
       </c>
       <c r="R14">
-        <v>1.016374559562363</v>
+        <v>0.9971585925000002</v>
       </c>
       <c r="S14">
-        <v>1.016374559562363</v>
+        <v>0.9971585925000002</v>
       </c>
       <c r="T14">
-        <v>1.006671893190858</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30">
+        <v>0.9954362850000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1418,61 +1388,61 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9830245918534591</v>
+        <v>1.4203764</v>
       </c>
       <c r="D15">
-        <v>1.072680463717056</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="E15">
-        <v>0.9811661573293712</v>
+        <v>0.88779747</v>
       </c>
       <c r="F15">
-        <v>0.9830245918534591</v>
+        <v>1.4203764</v>
       </c>
       <c r="G15">
-        <v>0.9494224432153224</v>
+        <v>0.73238625</v>
       </c>
       <c r="H15">
-        <v>1.040404348898871</v>
+        <v>1.228648</v>
       </c>
       <c r="I15">
-        <v>0.9817079847949673</v>
+        <v>0.88779747</v>
       </c>
       <c r="J15">
-        <v>1.072680463717056</v>
+        <v>0.8956312400000001</v>
       </c>
       <c r="K15">
-        <v>0.9830245918534591</v>
+        <v>0.88779747</v>
       </c>
       <c r="L15">
-        <v>0.9811661573293712</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="M15">
-        <v>1.026923310523214</v>
+        <v>1.15961571</v>
       </c>
       <c r="N15">
-        <v>1.026923310523214</v>
+        <v>1.15961571</v>
       </c>
       <c r="O15">
-        <v>1.031416989981766</v>
+        <v>1.182626473333333</v>
       </c>
       <c r="P15">
-        <v>1.012290404299962</v>
+        <v>1.06900963</v>
       </c>
       <c r="Q15">
-        <v>1.012290404299962</v>
+        <v>1.06900963</v>
       </c>
       <c r="R15">
-        <v>1.004973951188336</v>
+        <v>1.02370659</v>
       </c>
       <c r="S15">
-        <v>1.004973951188336</v>
+        <v>1.02370659</v>
       </c>
       <c r="T15">
-        <v>1.001400998301508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30">
+        <v>1.01061573</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1480,58 +1450,58 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.000046361193685</v>
+        <v>0.88779747</v>
       </c>
       <c r="D16">
-        <v>0.9999655756815368</v>
+        <v>1.0216333</v>
       </c>
       <c r="E16">
-        <v>0.9999876331927574</v>
+        <v>1.0396018</v>
       </c>
       <c r="F16">
-        <v>1.000046361193685</v>
+        <v>0.88779747</v>
       </c>
       <c r="G16">
-        <v>0.9999558269506368</v>
+        <v>1.0542662</v>
       </c>
       <c r="H16">
-        <v>0.9999946610079113</v>
+        <v>0.94244704</v>
       </c>
       <c r="I16">
-        <v>1.000004753055766</v>
+        <v>1.0396018</v>
       </c>
       <c r="J16">
-        <v>0.9999655756815368</v>
+        <v>1.0268719</v>
       </c>
       <c r="K16">
-        <v>1.000046361193685</v>
+        <v>1.0396018</v>
       </c>
       <c r="L16">
-        <v>0.9999876331927574</v>
+        <v>1.0216333</v>
       </c>
       <c r="M16">
-        <v>0.9999766044371471</v>
+        <v>0.954715385</v>
       </c>
       <c r="N16">
-        <v>0.9999766044371471</v>
+        <v>0.954715385</v>
       </c>
       <c r="O16">
-        <v>0.9999826232940685</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P16">
-        <v>0.9999998566893264</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q16">
-        <v>0.9999998566893263</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R16">
-        <v>1.000011482815416</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S16">
-        <v>1.000011482815416</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T16">
-        <v>0.9999924685137156</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1542,58 +1512,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>0.9999955658476287</v>
+        <v>1.2872317</v>
       </c>
       <c r="D17">
-        <v>0.9998779240781552</v>
+        <v>0.92954959</v>
       </c>
       <c r="E17">
-        <v>1.000049939544589</v>
+        <v>0.9257485600000002</v>
       </c>
       <c r="F17">
-        <v>0.9999955658476287</v>
+        <v>1.2872317</v>
       </c>
       <c r="G17">
-        <v>1.000143519341251</v>
+        <v>0.8128562499999999</v>
       </c>
       <c r="H17">
-        <v>0.9999202777078703</v>
+        <v>1.1570978</v>
       </c>
       <c r="I17">
-        <v>1.000034085450207</v>
+        <v>0.9257485600000002</v>
       </c>
       <c r="J17">
-        <v>0.9998779240781552</v>
+        <v>0.92844142</v>
       </c>
       <c r="K17">
-        <v>0.9999955658476287</v>
+        <v>0.9257485600000002</v>
       </c>
       <c r="L17">
-        <v>1.000049939544589</v>
+        <v>0.92954959</v>
       </c>
       <c r="M17">
-        <v>0.999963931811372</v>
+        <v>1.108390645</v>
       </c>
       <c r="N17">
-        <v>0.999963931811372</v>
+        <v>1.108390645</v>
       </c>
       <c r="O17">
-        <v>0.9999493804435381</v>
+        <v>1.124626363333333</v>
       </c>
       <c r="P17">
-        <v>0.9999744764901243</v>
+        <v>1.04750995</v>
       </c>
       <c r="Q17">
-        <v>0.9999744764901243</v>
+        <v>1.04750995</v>
       </c>
       <c r="R17">
-        <v>0.9999797488295004</v>
+        <v>1.0170696025</v>
       </c>
       <c r="S17">
-        <v>0.9999797488295004</v>
+        <v>1.0170696025</v>
       </c>
       <c r="T17">
-        <v>1.00000355199495</v>
+        <v>1.006820886666667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1604,58 +1574,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>1.000183448643836</v>
+        <v>0.9699554873972599</v>
       </c>
       <c r="D18">
-        <v>0.9994477109054805</v>
+        <v>1.00954316520548</v>
       </c>
       <c r="E18">
-        <v>1.000112863738293</v>
+        <v>1.003853444520548</v>
       </c>
       <c r="F18">
-        <v>1.000183448643836</v>
+        <v>0.9699554873972599</v>
       </c>
       <c r="G18">
-        <v>1.000287516832997</v>
+        <v>1.026532212465753</v>
       </c>
       <c r="H18">
-        <v>0.9997125795757034</v>
+        <v>0.9821587600000001</v>
       </c>
       <c r="I18">
-        <v>1.000133443719112</v>
+        <v>1.003853444520548</v>
       </c>
       <c r="J18">
-        <v>0.9994477109054805</v>
+        <v>1.007884358356164</v>
       </c>
       <c r="K18">
-        <v>1.000183448643836</v>
+        <v>1.003853444520548</v>
       </c>
       <c r="L18">
-        <v>1.000112863738293</v>
+        <v>1.00954316520548</v>
       </c>
       <c r="M18">
-        <v>0.9997802873218867</v>
+        <v>0.9897493263013697</v>
       </c>
       <c r="N18">
-        <v>0.9997802873218867</v>
+        <v>0.9897493263013697</v>
       </c>
       <c r="O18">
-        <v>0.9997577180731589</v>
+        <v>0.9872191375342464</v>
       </c>
       <c r="P18">
-        <v>0.9999146744292032</v>
+        <v>0.9944506990410957</v>
       </c>
       <c r="Q18">
-        <v>0.9999146744292032</v>
+        <v>0.9944506990410957</v>
       </c>
       <c r="R18">
-        <v>0.9999818679828615</v>
+        <v>0.9968013854109588</v>
       </c>
       <c r="S18">
-        <v>0.9999818679828615</v>
+        <v>0.9968013854109588</v>
       </c>
       <c r="T18">
-        <v>0.9999795939025703</v>
+        <v>0.9999879046575342</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1666,58 +1636,678 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.000527720428362</v>
+        <v>1.140071708421053</v>
       </c>
       <c r="D19">
-        <v>0.9986458786381561</v>
+        <v>0.9634751726315791</v>
       </c>
       <c r="E19">
-        <v>1.000233419849397</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="F19">
-        <v>1.000527720428362</v>
+        <v>1.140071708421053</v>
       </c>
       <c r="G19">
-        <v>1.000566402307763</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="H19">
-        <v>0.9993233418037238</v>
+        <v>1.078015924210526</v>
       </c>
       <c r="I19">
-        <v>1.000319225065965</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="J19">
-        <v>0.9986458786381561</v>
+        <v>0.9647052863157896</v>
       </c>
       <c r="K19">
-        <v>1.000527720428362</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="L19">
-        <v>1.000233419849397</v>
+        <v>0.9634751726315791</v>
       </c>
       <c r="M19">
-        <v>0.9994396492437763</v>
+        <v>1.051773440526316</v>
       </c>
       <c r="N19">
-        <v>0.9994396492437763</v>
+        <v>1.051773440526316</v>
       </c>
       <c r="O19">
-        <v>0.9994008800970922</v>
+        <v>1.06052093508772</v>
       </c>
       <c r="P19">
-        <v>0.9998023396386383</v>
+        <v>1.023747125789474</v>
       </c>
       <c r="Q19">
-        <v>0.9998023396386383</v>
+        <v>1.023747125789474</v>
       </c>
       <c r="R19">
-        <v>0.9999836848360693</v>
+        <v>1.009733968421053</v>
       </c>
       <c r="S19">
-        <v>0.9999836848360693</v>
+        <v>1.009733968421053</v>
       </c>
       <c r="T19">
-        <v>0.9999359980155612</v>
+        <v>1.002626559122807</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>0.973720025263158</v>
+      </c>
+      <c r="D20">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="E20">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="F20">
+        <v>0.973720025263158</v>
+      </c>
+      <c r="G20">
+        <v>1.023391712631579</v>
+      </c>
+      <c r="H20">
+        <v>0.9843569942105262</v>
+      </c>
+      <c r="I20">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="J20">
+        <v>1.006907015789474</v>
+      </c>
+      <c r="K20">
+        <v>1.003267138421053</v>
+      </c>
+      <c r="L20">
+        <v>1.008404903684211</v>
+      </c>
+      <c r="M20">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="N20">
+        <v>0.9910624644736843</v>
+      </c>
+      <c r="O20">
+        <v>0.9888273077192983</v>
+      </c>
+      <c r="P20">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="Q20">
+        <v>0.995130689122807</v>
+      </c>
+      <c r="R20">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="S20">
+        <v>0.9971648014473684</v>
+      </c>
+      <c r="T20">
+        <v>1.000007965</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1.277954329490422</v>
+      </c>
+      <c r="D21">
+        <v>0.9320461621327375</v>
+      </c>
+      <c r="E21">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="F21">
+        <v>1.277954329490422</v>
+      </c>
+      <c r="G21">
+        <v>0.8196082955855434</v>
+      </c>
+      <c r="H21">
+        <v>1.151880390641586</v>
+      </c>
+      <c r="I21">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="J21">
+        <v>0.9307933079817121</v>
+      </c>
+      <c r="K21">
+        <v>0.9277488733131457</v>
+      </c>
+      <c r="L21">
+        <v>0.9320461621327375</v>
+      </c>
+      <c r="M21">
+        <v>1.10500024581158</v>
+      </c>
+      <c r="N21">
+        <v>1.10500024581158</v>
+      </c>
+      <c r="O21">
+        <v>1.120626960754915</v>
+      </c>
+      <c r="P21">
+        <v>1.045916454978769</v>
+      </c>
+      <c r="Q21">
+        <v>1.045916454978769</v>
+      </c>
+      <c r="R21">
+        <v>1.016374559562363</v>
+      </c>
+      <c r="S21">
+        <v>1.016374559562363</v>
+      </c>
+      <c r="T21">
+        <v>1.006671893190858</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="D22">
+        <v>0.9811661573293712</v>
+      </c>
+      <c r="E22">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="F22">
+        <v>1.072680463717056</v>
+      </c>
+      <c r="G22">
+        <v>0.9494224432153225</v>
+      </c>
+      <c r="H22">
+        <v>1.040404348898871</v>
+      </c>
+      <c r="I22">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="J22">
+        <v>0.9817079847949673</v>
+      </c>
+      <c r="K22">
+        <v>0.9830245918534591</v>
+      </c>
+      <c r="L22">
+        <v>0.9811661573293712</v>
+      </c>
+      <c r="M22">
+        <v>1.026923310523214</v>
+      </c>
+      <c r="N22">
+        <v>1.026923310523214</v>
+      </c>
+      <c r="O22">
+        <v>1.031416989981766</v>
+      </c>
+      <c r="P22">
+        <v>1.012290404299962</v>
+      </c>
+      <c r="Q22">
+        <v>1.012290404299962</v>
+      </c>
+      <c r="R22">
+        <v>1.004973951188336</v>
+      </c>
+      <c r="S22">
+        <v>1.004973951188336</v>
+      </c>
+      <c r="T22">
+        <v>1.001400998301508</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23">
+        <v>0.9973719629308202</v>
+      </c>
+      <c r="D23">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="E23">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="F23">
+        <v>0.9973719629308202</v>
+      </c>
+      <c r="G23">
+        <v>1.002417857854792</v>
+      </c>
+      <c r="H23">
+        <v>0.9984197460422126</v>
+      </c>
+      <c r="I23">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="J23">
+        <v>1.00069522627891</v>
+      </c>
+      <c r="K23">
+        <v>1.000282481962374</v>
+      </c>
+      <c r="L23">
+        <v>1.000865077468418</v>
+      </c>
+      <c r="M23">
+        <v>0.9991185201996193</v>
+      </c>
+      <c r="N23">
+        <v>0.9991185201996193</v>
+      </c>
+      <c r="O23">
+        <v>0.9988855954804837</v>
+      </c>
+      <c r="P23">
+        <v>0.999506507453871</v>
+      </c>
+      <c r="Q23">
+        <v>0.999506507453871</v>
+      </c>
+      <c r="R23">
+        <v>0.9997005010809968</v>
+      </c>
+      <c r="S23">
+        <v>0.9997005010809968</v>
+      </c>
+      <c r="T23">
+        <v>1.000008725422921</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24">
+        <v>0.9990817833146899</v>
+      </c>
+      <c r="D24">
+        <v>1.000129187227138</v>
+      </c>
+      <c r="E24">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="F24">
+        <v>0.9990817833146899</v>
+      </c>
+      <c r="G24">
+        <v>1.000290957719287</v>
+      </c>
+      <c r="H24">
+        <v>0.9995600236539687</v>
+      </c>
+      <c r="I24">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="J24">
+        <v>1.000211121594492</v>
+      </c>
+      <c r="K24">
+        <v>1.000410226801606</v>
+      </c>
+      <c r="L24">
+        <v>1.000129187227138</v>
+      </c>
+      <c r="M24">
+        <v>0.9996054852709138</v>
+      </c>
+      <c r="N24">
+        <v>0.9996054852709138</v>
+      </c>
+      <c r="O24">
+        <v>0.9995903313985988</v>
+      </c>
+      <c r="P24">
+        <v>0.9998737324478112</v>
+      </c>
+      <c r="Q24">
+        <v>0.9998737324478112</v>
+      </c>
+      <c r="R24">
+        <v>1.00000785603626</v>
+      </c>
+      <c r="S24">
+        <v>1.00000785603626</v>
+      </c>
+      <c r="T24">
+        <v>0.99994721671853</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25">
+        <v>0.7894649163113109</v>
+      </c>
+      <c r="D25">
+        <v>1.056604045948</v>
+      </c>
+      <c r="E25">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="F25">
+        <v>0.7894649163113109</v>
+      </c>
+      <c r="G25">
+        <v>1.153061593316328</v>
+      </c>
+      <c r="H25">
+        <v>0.8816329661722336</v>
+      </c>
+      <c r="I25">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="J25">
+        <v>1.053363000455561</v>
+      </c>
+      <c r="K25">
+        <v>1.04548728095121</v>
+      </c>
+      <c r="L25">
+        <v>1.056604045948</v>
+      </c>
+      <c r="M25">
+        <v>0.9230344811296556</v>
+      </c>
+      <c r="N25">
+        <v>0.9230344811296556</v>
+      </c>
+      <c r="O25">
+        <v>0.9092339761438483</v>
+      </c>
+      <c r="P25">
+        <v>0.9638520810701738</v>
+      </c>
+      <c r="Q25">
+        <v>0.9638520810701737</v>
+      </c>
+      <c r="R25">
+        <v>0.9842608810404327</v>
+      </c>
+      <c r="S25">
+        <v>0.9842608810404327</v>
+      </c>
+      <c r="T25">
+        <v>0.9966023005257739</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26">
+        <v>0.9398945720535595</v>
+      </c>
+      <c r="D26">
+        <v>1.013362453267904</v>
+      </c>
+      <c r="E26">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="F26">
+        <v>0.9398945720535595</v>
+      </c>
+      <c r="G26">
+        <v>1.034745780519005</v>
+      </c>
+      <c r="H26">
+        <v>0.9680202245104418</v>
+      </c>
+      <c r="I26">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="J26">
+        <v>1.01472075290998</v>
+      </c>
+      <c r="K26">
+        <v>1.018021394410658</v>
+      </c>
+      <c r="L26">
+        <v>1.013362453267904</v>
+      </c>
+      <c r="M26">
+        <v>0.9766285126607315</v>
+      </c>
+      <c r="N26">
+        <v>0.9766285126607315</v>
+      </c>
+      <c r="O26">
+        <v>0.9737590832773017</v>
+      </c>
+      <c r="P26">
+        <v>0.9904261399107072</v>
+      </c>
+      <c r="Q26">
+        <v>0.9904261399107072</v>
+      </c>
+      <c r="R26">
+        <v>0.9973249535356949</v>
+      </c>
+      <c r="S26">
+        <v>0.9973249535356949</v>
+      </c>
+      <c r="T26">
+        <v>0.9981275296119246</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>0.9940048727552425</v>
+      </c>
+      <c r="D27">
+        <v>1.001645029790329</v>
+      </c>
+      <c r="E27">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="F27">
+        <v>0.9940048727552425</v>
+      </c>
+      <c r="G27">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="H27">
+        <v>0.9966079059605989</v>
+      </c>
+      <c r="I27">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="J27">
+        <v>1.001525640553184</v>
+      </c>
+      <c r="K27">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="L27">
+        <v>1.001645029790329</v>
+      </c>
+      <c r="M27">
+        <v>0.9978249512727855</v>
+      </c>
+      <c r="N27">
+        <v>0.9978249512727855</v>
+      </c>
+      <c r="O27">
+        <v>0.9974192695020566</v>
+      </c>
+      <c r="P27">
+        <v>0.9989618182821394</v>
+      </c>
+      <c r="Q27">
+        <v>0.9989618182821394</v>
+      </c>
+      <c r="R27">
+        <v>0.9995302517868163</v>
+      </c>
+      <c r="S27">
+        <v>0.9995302517868163</v>
+      </c>
+      <c r="T27">
+        <v>0.9999139596079157</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28">
+        <v>1.007150191367457</v>
+      </c>
+      <c r="D28">
+        <v>0.9989066269410791</v>
+      </c>
+      <c r="E28">
+        <v>0.9969629268849463</v>
+      </c>
+      <c r="F28">
+        <v>1.007150191367457</v>
+      </c>
+      <c r="G28">
+        <v>0.9974545780919949</v>
+      </c>
+      <c r="H28">
+        <v>1.003482775059754</v>
+      </c>
+      <c r="I28">
+        <v>0.9969629268849463</v>
+      </c>
+      <c r="J28">
+        <v>0.9983399589671734</v>
+      </c>
+      <c r="K28">
+        <v>0.9969629268849463</v>
+      </c>
+      <c r="L28">
+        <v>0.9989066269410791</v>
+      </c>
+      <c r="M28">
+        <v>1.003028409154268</v>
+      </c>
+      <c r="N28">
+        <v>1.003028409154268</v>
+      </c>
+      <c r="O28">
+        <v>1.003179864456097</v>
+      </c>
+      <c r="P28">
+        <v>1.001006581731161</v>
+      </c>
+      <c r="Q28">
+        <v>1.001006581731161</v>
+      </c>
+      <c r="R28">
+        <v>0.9999956680196072</v>
+      </c>
+      <c r="S28">
+        <v>0.9999956680196072</v>
+      </c>
+      <c r="T28">
+        <v>1.000382842885401</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29">
+        <v>1.028791806092115</v>
+      </c>
+      <c r="D29">
+        <v>0.9940616775728298</v>
+      </c>
+      <c r="E29">
+        <v>0.9905347163257885</v>
+      </c>
+      <c r="F29">
+        <v>1.028791806092115</v>
+      </c>
+      <c r="G29">
+        <v>0.9848362686572451</v>
+      </c>
+      <c r="H29">
+        <v>1.015019244271744</v>
+      </c>
+      <c r="I29">
+        <v>0.9905347163257885</v>
+      </c>
+      <c r="J29">
+        <v>0.9930334237115614</v>
+      </c>
+      <c r="K29">
+        <v>0.9905347163257885</v>
+      </c>
+      <c r="L29">
+        <v>0.9940616775728298</v>
+      </c>
+      <c r="M29">
+        <v>1.011426741832472</v>
+      </c>
+      <c r="N29">
+        <v>1.011426741832472</v>
+      </c>
+      <c r="O29">
+        <v>1.012624242645563</v>
+      </c>
+      <c r="P29">
+        <v>1.004462733330244</v>
+      </c>
+      <c r="Q29">
+        <v>1.004462733330244</v>
+      </c>
+      <c r="R29">
+        <v>1.00098072907913</v>
+      </c>
+      <c r="S29">
+        <v>1.00098072907913</v>
+      </c>
+      <c r="T29">
+        <v>1.001046189438547</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AvgHW/GossF-HW35.xlsx
+++ b/JupyterNotebooks/AvgHW/GossF-HW35.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>HKL</t>
   </si>
@@ -22,6 +22,12 @@
     <t>Spiral5</t>
   </si>
   <si>
+    <t>Holden</t>
+  </si>
+  <si>
+    <t>Rizzie Spiral</t>
+  </si>
+  <si>
     <t>RotRing OmegaMax-90</t>
   </si>
   <si>
@@ -37,7 +43,7 @@
     <t>Rizzie Hex</t>
   </si>
   <si>
-    <t>Thomas Hex</t>
+    <t>Matthies Hex</t>
   </si>
   <si>
     <t>Tilt Rotate_Partial</t>
@@ -509,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T29"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,58 +588,58 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="M2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="N2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="O2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="P2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="Q2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="R2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="T2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -706,58 +712,58 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>0.9896464078244349</v>
+        <v>0.9822041070643793</v>
       </c>
       <c r="D4">
-        <v>1.001993370120277</v>
+        <v>1.003803562701073</v>
       </c>
       <c r="E4">
-        <v>1.003659455185878</v>
+        <v>1.005610714995183</v>
       </c>
       <c r="F4">
-        <v>0.9896464078244349</v>
+        <v>0.9822041070643793</v>
       </c>
       <c r="G4">
-        <v>1.004998292311812</v>
+        <v>1.009798607245047</v>
       </c>
       <c r="H4">
-        <v>0.9946911076508101</v>
+        <v>0.9906304877670999</v>
       </c>
       <c r="I4">
-        <v>1.003659455185878</v>
+        <v>1.005610714995183</v>
       </c>
       <c r="J4">
-        <v>1.002479105443938</v>
+        <v>1.004330426293581</v>
       </c>
       <c r="K4">
-        <v>1.003659455185878</v>
+        <v>1.005610714995183</v>
       </c>
       <c r="L4">
-        <v>1.001993370120277</v>
+        <v>1.003803562701073</v>
       </c>
       <c r="M4">
-        <v>0.9958198889723562</v>
+        <v>0.9930038348827261</v>
       </c>
       <c r="N4">
-        <v>0.9958198889723562</v>
+        <v>0.9930038348827261</v>
       </c>
       <c r="O4">
-        <v>0.9954436285318408</v>
+        <v>0.9922127191775174</v>
       </c>
       <c r="P4">
-        <v>0.9984330777101968</v>
+        <v>0.9972061282535449</v>
       </c>
       <c r="Q4">
-        <v>0.9984330777101968</v>
+        <v>0.9972061282535449</v>
       </c>
       <c r="R4">
-        <v>0.9997396720791172</v>
+        <v>0.9993072749389544</v>
       </c>
       <c r="S4">
-        <v>0.9997396720791172</v>
+        <v>0.9993072749389544</v>
       </c>
       <c r="T4">
-        <v>0.9995779564228583</v>
+        <v>0.9993963176777272</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -768,58 +774,58 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>0.9813121635086443</v>
+        <v>0.9700504114319629</v>
       </c>
       <c r="D5">
-        <v>1.003992870180115</v>
+        <v>1.009913534414464</v>
       </c>
       <c r="E5">
-        <v>1.005894320396254</v>
+        <v>1.003120332843378</v>
       </c>
       <c r="F5">
-        <v>0.9813121635086443</v>
+        <v>0.9700504114319629</v>
       </c>
       <c r="G5">
-        <v>1.010285465994235</v>
+        <v>1.027730049476684</v>
       </c>
       <c r="H5">
-        <v>0.9901617423847269</v>
+        <v>0.9819555917340645</v>
       </c>
       <c r="I5">
-        <v>1.005894320396254</v>
+        <v>1.003120332843378</v>
       </c>
       <c r="J5">
-        <v>1.004547225475502</v>
+        <v>1.007933013049084</v>
       </c>
       <c r="K5">
-        <v>1.005894320396254</v>
+        <v>1.003120332843378</v>
       </c>
       <c r="L5">
-        <v>1.003992870180115</v>
+        <v>1.009913534414464</v>
       </c>
       <c r="M5">
-        <v>0.9926525168443798</v>
+        <v>0.9899819729232135</v>
       </c>
       <c r="N5">
-        <v>0.9926525168443798</v>
+        <v>0.9899819729232135</v>
       </c>
       <c r="O5">
-        <v>0.9918222586911621</v>
+        <v>0.9873065125268305</v>
       </c>
       <c r="P5">
-        <v>0.9970664513616714</v>
+        <v>0.994361426229935</v>
       </c>
       <c r="Q5">
-        <v>0.9970664513616714</v>
+        <v>0.994361426229935</v>
       </c>
       <c r="R5">
-        <v>0.9992734186203172</v>
+        <v>0.9965511528832957</v>
       </c>
       <c r="S5">
-        <v>0.9992734186203172</v>
+        <v>0.9965511528832957</v>
       </c>
       <c r="T5">
-        <v>0.9993656313232463</v>
+        <v>1.000117155491606</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -830,58 +836,58 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>0.9361923857285969</v>
+        <v>0.9896464078244349</v>
       </c>
       <c r="D6">
-        <v>1.012429972613905</v>
+        <v>1.001993370120277</v>
       </c>
       <c r="E6">
-        <v>1.022291365730696</v>
+        <v>1.003659455185878</v>
       </c>
       <c r="F6">
-        <v>0.9361923857285969</v>
+        <v>0.9896464078244349</v>
       </c>
       <c r="G6">
-        <v>1.031268214437598</v>
+        <v>1.004998292311812</v>
       </c>
       <c r="H6">
-        <v>0.9671880250868423</v>
+        <v>0.9946911076508101</v>
       </c>
       <c r="I6">
-        <v>1.022291365730696</v>
+        <v>1.003659455185878</v>
       </c>
       <c r="J6">
-        <v>1.015304997625049</v>
+        <v>1.002479105443938</v>
       </c>
       <c r="K6">
-        <v>1.022291365730696</v>
+        <v>1.003659455185878</v>
       </c>
       <c r="L6">
-        <v>1.012429972613905</v>
+        <v>1.001993370120277</v>
       </c>
       <c r="M6">
-        <v>0.9743111791712511</v>
+        <v>0.9958198889723562</v>
       </c>
       <c r="N6">
-        <v>0.9743111791712511</v>
+        <v>0.9958198889723562</v>
       </c>
       <c r="O6">
-        <v>0.9719367944764482</v>
+        <v>0.9954436285318408</v>
       </c>
       <c r="P6">
-        <v>0.990304574691066</v>
+        <v>0.9984330777101968</v>
       </c>
       <c r="Q6">
-        <v>0.990304574691066</v>
+        <v>0.9984330777101968</v>
       </c>
       <c r="R6">
-        <v>0.9983012724509736</v>
+        <v>0.9997396720791172</v>
       </c>
       <c r="S6">
-        <v>0.9983012724509736</v>
+        <v>0.9997396720791172</v>
       </c>
       <c r="T6">
-        <v>0.997445826870448</v>
+        <v>0.9995779564228583</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -892,58 +898,58 @@
         <v>5</v>
       </c>
       <c r="C7">
-        <v>0.9981634941999236</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="D7">
-        <v>1.000554658191328</v>
+        <v>1.003992870180115</v>
       </c>
       <c r="E7">
-        <v>1.000287172508489</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="F7">
-        <v>0.9981634941999236</v>
+        <v>0.9813121635086443</v>
       </c>
       <c r="G7">
-        <v>1.001530029670082</v>
+        <v>1.010285465994235</v>
       </c>
       <c r="H7">
-        <v>0.9989280212791537</v>
+        <v>0.9901617423847269</v>
       </c>
       <c r="I7">
-        <v>1.000287172508489</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="J7">
-        <v>1.000476672797012</v>
+        <v>1.004547225475502</v>
       </c>
       <c r="K7">
-        <v>1.000287172508489</v>
+        <v>1.005894320396254</v>
       </c>
       <c r="L7">
-        <v>1.000554658191328</v>
+        <v>1.003992870180115</v>
       </c>
       <c r="M7">
-        <v>0.9993590761956256</v>
+        <v>0.9926525168443798</v>
       </c>
       <c r="N7">
-        <v>0.9993590761956256</v>
+        <v>0.9926525168443798</v>
       </c>
       <c r="O7">
-        <v>0.9992153912234683</v>
+        <v>0.9918222586911621</v>
       </c>
       <c r="P7">
-        <v>0.9996684416332468</v>
+        <v>0.9970664513616714</v>
       </c>
       <c r="Q7">
-        <v>0.9996684416332468</v>
+        <v>0.9970664513616714</v>
       </c>
       <c r="R7">
-        <v>0.9998231243520574</v>
+        <v>0.9992734186203172</v>
       </c>
       <c r="S7">
-        <v>0.9998231243520574</v>
+        <v>0.9992734186203172</v>
       </c>
       <c r="T7">
-        <v>0.9999900081076646</v>
+        <v>0.9993656313232463</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -954,58 +960,58 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>0.9998779240781555</v>
+        <v>0.9361923857285969</v>
       </c>
       <c r="D8">
-        <v>1.000049939544589</v>
+        <v>1.012429972613905</v>
       </c>
       <c r="E8">
-        <v>0.9999955658476287</v>
+        <v>1.022291365730696</v>
       </c>
       <c r="F8">
-        <v>0.9998779240781555</v>
+        <v>0.9361923857285969</v>
       </c>
       <c r="G8">
-        <v>1.000143519341251</v>
+        <v>1.031268214437598</v>
       </c>
       <c r="H8">
-        <v>0.9999202777078704</v>
+        <v>0.9671880250868423</v>
       </c>
       <c r="I8">
-        <v>0.9999955658476287</v>
+        <v>1.022291365730696</v>
       </c>
       <c r="J8">
-        <v>1.000034085450207</v>
+        <v>1.015304997625049</v>
       </c>
       <c r="K8">
-        <v>0.9999955658476287</v>
+        <v>1.022291365730696</v>
       </c>
       <c r="L8">
-        <v>1.000049939544589</v>
+        <v>1.012429972613905</v>
       </c>
       <c r="M8">
-        <v>0.9999639318113721</v>
+        <v>0.9743111791712511</v>
       </c>
       <c r="N8">
-        <v>0.9999639318113721</v>
+        <v>0.9743111791712511</v>
       </c>
       <c r="O8">
-        <v>0.9999493804435383</v>
+        <v>0.9719367944764482</v>
       </c>
       <c r="P8">
-        <v>0.9999744764901243</v>
+        <v>0.990304574691066</v>
       </c>
       <c r="Q8">
-        <v>0.9999744764901243</v>
+        <v>0.990304574691066</v>
       </c>
       <c r="R8">
-        <v>0.9999797488295004</v>
+        <v>0.9983012724509736</v>
       </c>
       <c r="S8">
-        <v>0.9999797488295004</v>
+        <v>0.9983012724509736</v>
       </c>
       <c r="T8">
-        <v>1.00000355199495</v>
+        <v>0.997445826870448</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -1016,58 +1022,58 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>0.99694737855699</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="D9">
-        <v>1.000918454697044</v>
+        <v>1.000554658191328</v>
       </c>
       <c r="E9">
-        <v>1.000483617637495</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="F9">
-        <v>0.99694737855699</v>
+        <v>0.9981634941999236</v>
       </c>
       <c r="G9">
-        <v>1.002532032879154</v>
+        <v>1.001530029670082</v>
       </c>
       <c r="H9">
-        <v>0.9982204285355658</v>
+        <v>0.9989280212791537</v>
       </c>
       <c r="I9">
-        <v>1.000483617637495</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="J9">
-        <v>1.000791678992289</v>
+        <v>1.000476672797012</v>
       </c>
       <c r="K9">
-        <v>1.000483617637495</v>
+        <v>1.000287172508489</v>
       </c>
       <c r="L9">
-        <v>1.000918454697044</v>
+        <v>1.000554658191328</v>
       </c>
       <c r="M9">
-        <v>0.998932916627017</v>
+        <v>0.9993590761956256</v>
       </c>
       <c r="N9">
-        <v>0.998932916627017</v>
+        <v>0.9993590761956256</v>
       </c>
       <c r="O9">
-        <v>0.9986954205965333</v>
+        <v>0.9992153912234683</v>
       </c>
       <c r="P9">
-        <v>0.9994498169638431</v>
+        <v>0.9996684416332468</v>
       </c>
       <c r="Q9">
-        <v>0.9994498169638431</v>
+        <v>0.9996684416332468</v>
       </c>
       <c r="R9">
-        <v>0.9997082671322561</v>
+        <v>0.9998231243520574</v>
       </c>
       <c r="S9">
-        <v>0.9997082671322561</v>
+        <v>0.9998231243520574</v>
       </c>
       <c r="T9">
-        <v>0.9999822652164231</v>
+        <v>0.9999900081076646</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1078,58 +1084,58 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>0.9351645491520044</v>
+        <v>0.9998779240781555</v>
       </c>
       <c r="D10">
-        <v>1.012577159622414</v>
+        <v>1.000049939544589</v>
       </c>
       <c r="E10">
-        <v>1.022745913986419</v>
+        <v>0.9999955658476287</v>
       </c>
       <c r="F10">
-        <v>0.9351645491520044</v>
+        <v>0.9998779240781555</v>
       </c>
       <c r="G10">
-        <v>1.031602169890295</v>
+        <v>1.000143519341251</v>
       </c>
       <c r="H10">
-        <v>0.9666938463439014</v>
+        <v>0.9999202777078704</v>
       </c>
       <c r="I10">
-        <v>1.022745913986419</v>
+        <v>0.9999955658476287</v>
       </c>
       <c r="J10">
-        <v>1.015541794900985</v>
+        <v>1.000034085450207</v>
       </c>
       <c r="K10">
-        <v>1.022745913986419</v>
+        <v>0.9999955658476287</v>
       </c>
       <c r="L10">
-        <v>1.012577159622414</v>
+        <v>1.000049939544589</v>
       </c>
       <c r="M10">
-        <v>0.9738708543872091</v>
+        <v>0.9999639318113721</v>
       </c>
       <c r="N10">
-        <v>0.9738708543872091</v>
+        <v>0.9999639318113721</v>
       </c>
       <c r="O10">
-        <v>0.9714785183727731</v>
+        <v>0.9999493804435383</v>
       </c>
       <c r="P10">
-        <v>0.9901625409202793</v>
+        <v>0.9999744764901243</v>
       </c>
       <c r="Q10">
-        <v>0.9901625409202793</v>
+        <v>0.9999744764901243</v>
       </c>
       <c r="R10">
-        <v>0.9983083841868143</v>
+        <v>0.9999797488295004</v>
       </c>
       <c r="S10">
-        <v>0.9983083841868143</v>
+        <v>0.9999797488295004</v>
       </c>
       <c r="T10">
-        <v>0.9973875723160033</v>
+        <v>1.00000355199495</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1140,58 +1146,58 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>0.9347063259912063</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="D11">
-        <v>1.015760450039149</v>
+        <v>1.000918454697044</v>
       </c>
       <c r="E11">
-        <v>1.017336769534847</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="F11">
-        <v>0.9347063259912063</v>
+        <v>0.99694737855699</v>
       </c>
       <c r="G11">
-        <v>1.041727600630298</v>
+        <v>1.002532032879154</v>
       </c>
       <c r="H11">
-        <v>0.9644532874801094</v>
+        <v>0.9982204285355658</v>
       </c>
       <c r="I11">
-        <v>1.017336769534847</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="J11">
-        <v>1.016220014509265</v>
+        <v>1.000791678992289</v>
       </c>
       <c r="K11">
-        <v>1.017336769534847</v>
+        <v>1.000483617637495</v>
       </c>
       <c r="L11">
-        <v>1.015760450039149</v>
+        <v>1.000918454697044</v>
       </c>
       <c r="M11">
-        <v>0.9752333880151777</v>
+        <v>0.998932916627017</v>
       </c>
       <c r="N11">
-        <v>0.9752333880151777</v>
+        <v>0.998932916627017</v>
       </c>
       <c r="O11">
-        <v>0.9716400211701549</v>
+        <v>0.9986954205965333</v>
       </c>
       <c r="P11">
-        <v>0.989267848521734</v>
+        <v>0.9994498169638431</v>
       </c>
       <c r="Q11">
-        <v>0.989267848521734</v>
+        <v>0.9994498169638431</v>
       </c>
       <c r="R11">
-        <v>0.9962850787750122</v>
+        <v>0.9997082671322561</v>
       </c>
       <c r="S11">
-        <v>0.9962850787750122</v>
+        <v>0.9997082671322561</v>
       </c>
       <c r="T11">
-        <v>0.9983674080308123</v>
+        <v>0.9999822652164231</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1202,58 +1208,58 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.9784028141789475</v>
+        <v>0.9351645491520044</v>
       </c>
       <c r="D12">
-        <v>1.004323406799999</v>
+        <v>1.012577159622414</v>
       </c>
       <c r="E12">
-        <v>1.007335899178949</v>
+        <v>1.022745913986419</v>
       </c>
       <c r="F12">
-        <v>0.9784028141789475</v>
+        <v>0.9351645491520044</v>
       </c>
       <c r="G12">
-        <v>1.010955269684212</v>
+        <v>1.031602169890295</v>
       </c>
       <c r="H12">
-        <v>0.9888187260315788</v>
+        <v>0.9666938463439014</v>
       </c>
       <c r="I12">
-        <v>1.007335899178949</v>
+        <v>1.022745913986419</v>
       </c>
       <c r="J12">
-        <v>1.005201680968421</v>
+        <v>1.015541794900985</v>
       </c>
       <c r="K12">
-        <v>1.007335899178949</v>
+        <v>1.022745913986419</v>
       </c>
       <c r="L12">
-        <v>1.004323406799999</v>
+        <v>1.012577159622414</v>
       </c>
       <c r="M12">
-        <v>0.9913631104894731</v>
+        <v>0.9738708543872091</v>
       </c>
       <c r="N12">
-        <v>0.9913631104894731</v>
+        <v>0.9738708543872091</v>
       </c>
       <c r="O12">
-        <v>0.9905149823368417</v>
+        <v>0.9714785183727731</v>
       </c>
       <c r="P12">
-        <v>0.9966873733859649</v>
+        <v>0.9901625409202793</v>
       </c>
       <c r="Q12">
-        <v>0.9966873733859649</v>
+        <v>0.9901625409202793</v>
       </c>
       <c r="R12">
-        <v>0.9993495048342108</v>
+        <v>0.9983083841868143</v>
       </c>
       <c r="S12">
-        <v>0.9993495048342108</v>
+        <v>0.9983083841868143</v>
       </c>
       <c r="T12">
-        <v>0.9991729661403511</v>
+        <v>0.9973875723160033</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1264,58 +1270,58 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>1.011946021187304</v>
+        <v>0.9347063259912063</v>
       </c>
       <c r="D13">
-        <v>0.9971126153898674</v>
+        <v>1.015760450039149</v>
       </c>
       <c r="E13">
-        <v>0.9968350825022425</v>
+        <v>1.017336769534847</v>
       </c>
       <c r="F13">
-        <v>1.011946021187304</v>
+        <v>0.9347063259912063</v>
       </c>
       <c r="G13">
-        <v>0.9923531615682246</v>
+        <v>1.041727600630298</v>
       </c>
       <c r="H13">
-        <v>1.006506084113787</v>
+        <v>0.9644532874801094</v>
       </c>
       <c r="I13">
-        <v>0.9968350825022425</v>
+        <v>1.017336769534847</v>
       </c>
       <c r="J13">
-        <v>0.9970317014163405</v>
+        <v>1.016220014509265</v>
       </c>
       <c r="K13">
-        <v>0.9968350825022425</v>
+        <v>1.017336769534847</v>
       </c>
       <c r="L13">
-        <v>0.9971126153898674</v>
+        <v>1.015760450039149</v>
       </c>
       <c r="M13">
-        <v>1.004529318288585</v>
+        <v>0.9752333880151777</v>
       </c>
       <c r="N13">
-        <v>1.004529318288585</v>
+        <v>0.9752333880151777</v>
       </c>
       <c r="O13">
-        <v>1.005188240230319</v>
+        <v>0.9716400211701549</v>
       </c>
       <c r="P13">
-        <v>1.001964573026471</v>
+        <v>0.989267848521734</v>
       </c>
       <c r="Q13">
-        <v>1.001964573026471</v>
+        <v>0.989267848521734</v>
       </c>
       <c r="R13">
-        <v>1.000682200395414</v>
+        <v>0.9962850787750122</v>
       </c>
       <c r="S13">
-        <v>1.000682200395414</v>
+        <v>0.9962850787750122</v>
       </c>
       <c r="T13">
-        <v>1.000297444362961</v>
+        <v>0.9983674080308123</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1326,58 +1332,58 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.887797470000001</v>
+        <v>0.9784028141789475</v>
       </c>
       <c r="D14">
-        <v>1.0216333</v>
+        <v>1.004323406799999</v>
       </c>
       <c r="E14">
-        <v>1.0396018</v>
+        <v>1.007335899178949</v>
       </c>
       <c r="F14">
-        <v>0.887797470000001</v>
+        <v>0.9784028141789475</v>
       </c>
       <c r="G14">
-        <v>1.0542662</v>
+        <v>1.010955269684212</v>
       </c>
       <c r="H14">
-        <v>0.9424470399999992</v>
+        <v>0.9888187260315788</v>
       </c>
       <c r="I14">
-        <v>1.0396018</v>
+        <v>1.007335899178949</v>
       </c>
       <c r="J14">
-        <v>1.026871900000002</v>
+        <v>1.005201680968421</v>
       </c>
       <c r="K14">
-        <v>1.0396018</v>
+        <v>1.007335899178949</v>
       </c>
       <c r="L14">
-        <v>1.0216333</v>
+        <v>1.004323406799999</v>
       </c>
       <c r="M14">
-        <v>0.9547153850000005</v>
+        <v>0.9913631104894731</v>
       </c>
       <c r="N14">
-        <v>0.9547153850000005</v>
+        <v>0.9913631104894731</v>
       </c>
       <c r="O14">
-        <v>0.9506259366666668</v>
+        <v>0.9905149823368417</v>
       </c>
       <c r="P14">
-        <v>0.983010856666667</v>
+        <v>0.9966873733859649</v>
       </c>
       <c r="Q14">
-        <v>0.983010856666667</v>
+        <v>0.9966873733859649</v>
       </c>
       <c r="R14">
-        <v>0.9971585925000002</v>
+        <v>0.9993495048342108</v>
       </c>
       <c r="S14">
-        <v>0.9971585925000002</v>
+        <v>0.9993495048342108</v>
       </c>
       <c r="T14">
-        <v>0.9954362850000004</v>
+        <v>0.9991729661403511</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1388,58 +1394,58 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>1.4203764</v>
+        <v>1.011946021187304</v>
       </c>
       <c r="D15">
-        <v>0.8988550199999998</v>
+        <v>0.9971126153898674</v>
       </c>
       <c r="E15">
-        <v>0.88779747</v>
+        <v>0.9968350825022425</v>
       </c>
       <c r="F15">
-        <v>1.4203764</v>
+        <v>1.011946021187304</v>
       </c>
       <c r="G15">
-        <v>0.73238625</v>
+        <v>0.9923531615682246</v>
       </c>
       <c r="H15">
-        <v>1.228648</v>
+        <v>1.006506084113787</v>
       </c>
       <c r="I15">
-        <v>0.88779747</v>
+        <v>0.9968350825022425</v>
       </c>
       <c r="J15">
-        <v>0.8956312400000001</v>
+        <v>0.9970317014163405</v>
       </c>
       <c r="K15">
-        <v>0.88779747</v>
+        <v>0.9968350825022425</v>
       </c>
       <c r="L15">
-        <v>0.8988550199999998</v>
+        <v>0.9971126153898674</v>
       </c>
       <c r="M15">
-        <v>1.15961571</v>
+        <v>1.004529318288585</v>
       </c>
       <c r="N15">
-        <v>1.15961571</v>
+        <v>1.004529318288585</v>
       </c>
       <c r="O15">
-        <v>1.182626473333333</v>
+        <v>1.005188240230319</v>
       </c>
       <c r="P15">
-        <v>1.06900963</v>
+        <v>1.001964573026471</v>
       </c>
       <c r="Q15">
-        <v>1.06900963</v>
+        <v>1.001964573026471</v>
       </c>
       <c r="R15">
-        <v>1.02370659</v>
+        <v>1.000682200395414</v>
       </c>
       <c r="S15">
-        <v>1.02370659</v>
+        <v>1.000682200395414</v>
       </c>
       <c r="T15">
-        <v>1.01061573</v>
+        <v>1.000297444362961</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1450,7 +1456,7 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>0.88779747</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="D16">
         <v>1.0216333</v>
@@ -1459,19 +1465,19 @@
         <v>1.0396018</v>
       </c>
       <c r="F16">
-        <v>0.88779747</v>
+        <v>0.887797470000001</v>
       </c>
       <c r="G16">
         <v>1.0542662</v>
       </c>
       <c r="H16">
-        <v>0.94244704</v>
+        <v>0.9424470399999992</v>
       </c>
       <c r="I16">
         <v>1.0396018</v>
       </c>
       <c r="J16">
-        <v>1.0268719</v>
+        <v>1.026871900000002</v>
       </c>
       <c r="K16">
         <v>1.0396018</v>
@@ -1480,28 +1486,28 @@
         <v>1.0216333</v>
       </c>
       <c r="M16">
-        <v>0.954715385</v>
+        <v>0.9547153850000005</v>
       </c>
       <c r="N16">
-        <v>0.954715385</v>
+        <v>0.9547153850000005</v>
       </c>
       <c r="O16">
-        <v>0.9506259366666666</v>
+        <v>0.9506259366666668</v>
       </c>
       <c r="P16">
-        <v>0.9830108566666667</v>
+        <v>0.983010856666667</v>
       </c>
       <c r="Q16">
-        <v>0.9830108566666667</v>
+        <v>0.983010856666667</v>
       </c>
       <c r="R16">
-        <v>0.9971585924999999</v>
+        <v>0.9971585925000002</v>
       </c>
       <c r="S16">
-        <v>0.9971585924999999</v>
+        <v>0.9971585925000002</v>
       </c>
       <c r="T16">
-        <v>0.9954362849999999</v>
+        <v>0.9954362850000004</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1512,58 +1518,58 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>1.2872317</v>
+        <v>1.4203764</v>
       </c>
       <c r="D17">
-        <v>0.92954959</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="E17">
-        <v>0.9257485600000002</v>
+        <v>0.88779747</v>
       </c>
       <c r="F17">
-        <v>1.2872317</v>
+        <v>1.4203764</v>
       </c>
       <c r="G17">
-        <v>0.8128562499999999</v>
+        <v>0.73238625</v>
       </c>
       <c r="H17">
-        <v>1.1570978</v>
+        <v>1.228648</v>
       </c>
       <c r="I17">
-        <v>0.9257485600000002</v>
+        <v>0.88779747</v>
       </c>
       <c r="J17">
-        <v>0.92844142</v>
+        <v>0.8956312400000001</v>
       </c>
       <c r="K17">
-        <v>0.9257485600000002</v>
+        <v>0.88779747</v>
       </c>
       <c r="L17">
-        <v>0.92954959</v>
+        <v>0.8988550199999998</v>
       </c>
       <c r="M17">
-        <v>1.108390645</v>
+        <v>1.15961571</v>
       </c>
       <c r="N17">
-        <v>1.108390645</v>
+        <v>1.15961571</v>
       </c>
       <c r="O17">
-        <v>1.124626363333333</v>
+        <v>1.182626473333333</v>
       </c>
       <c r="P17">
-        <v>1.04750995</v>
+        <v>1.06900963</v>
       </c>
       <c r="Q17">
-        <v>1.04750995</v>
+        <v>1.06900963</v>
       </c>
       <c r="R17">
-        <v>1.0170696025</v>
+        <v>1.02370659</v>
       </c>
       <c r="S17">
-        <v>1.0170696025</v>
+        <v>1.02370659</v>
       </c>
       <c r="T17">
-        <v>1.006820886666667</v>
+        <v>1.01061573</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1574,58 +1580,58 @@
         <v>16</v>
       </c>
       <c r="C18">
-        <v>0.9699554873972599</v>
+        <v>0.88779747</v>
       </c>
       <c r="D18">
-        <v>1.00954316520548</v>
+        <v>1.0216333</v>
       </c>
       <c r="E18">
-        <v>1.003853444520548</v>
+        <v>1.0396018</v>
       </c>
       <c r="F18">
-        <v>0.9699554873972599</v>
+        <v>0.88779747</v>
       </c>
       <c r="G18">
-        <v>1.026532212465753</v>
+        <v>1.0542662</v>
       </c>
       <c r="H18">
-        <v>0.9821587600000001</v>
+        <v>0.94244704</v>
       </c>
       <c r="I18">
-        <v>1.003853444520548</v>
+        <v>1.0396018</v>
       </c>
       <c r="J18">
-        <v>1.007884358356164</v>
+        <v>1.0268719</v>
       </c>
       <c r="K18">
-        <v>1.003853444520548</v>
+        <v>1.0396018</v>
       </c>
       <c r="L18">
-        <v>1.00954316520548</v>
+        <v>1.0216333</v>
       </c>
       <c r="M18">
-        <v>0.9897493263013697</v>
+        <v>0.954715385</v>
       </c>
       <c r="N18">
-        <v>0.9897493263013697</v>
+        <v>0.954715385</v>
       </c>
       <c r="O18">
-        <v>0.9872191375342464</v>
+        <v>0.9506259366666666</v>
       </c>
       <c r="P18">
-        <v>0.9944506990410957</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="Q18">
-        <v>0.9944506990410957</v>
+        <v>0.9830108566666667</v>
       </c>
       <c r="R18">
-        <v>0.9968013854109588</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="S18">
-        <v>0.9968013854109588</v>
+        <v>0.9971585924999999</v>
       </c>
       <c r="T18">
-        <v>0.9999879046575342</v>
+        <v>0.9954362849999999</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1636,58 +1642,58 @@
         <v>17</v>
       </c>
       <c r="C19">
-        <v>1.140071708421053</v>
+        <v>1.2872317</v>
       </c>
       <c r="D19">
-        <v>0.9634751726315791</v>
+        <v>0.92954959</v>
       </c>
       <c r="E19">
-        <v>0.9676944963157896</v>
+        <v>0.9257485600000002</v>
       </c>
       <c r="F19">
-        <v>1.140071708421053</v>
+        <v>1.2872317</v>
       </c>
       <c r="G19">
-        <v>0.9017967668421052</v>
+        <v>0.8128562499999999</v>
       </c>
       <c r="H19">
-        <v>1.078015924210526</v>
+        <v>1.1570978</v>
       </c>
       <c r="I19">
-        <v>0.9676944963157896</v>
+        <v>0.9257485600000002</v>
       </c>
       <c r="J19">
-        <v>0.9647052863157896</v>
+        <v>0.92844142</v>
       </c>
       <c r="K19">
-        <v>0.9676944963157896</v>
+        <v>0.9257485600000002</v>
       </c>
       <c r="L19">
-        <v>0.9634751726315791</v>
+        <v>0.92954959</v>
       </c>
       <c r="M19">
-        <v>1.051773440526316</v>
+        <v>1.108390645</v>
       </c>
       <c r="N19">
-        <v>1.051773440526316</v>
+        <v>1.108390645</v>
       </c>
       <c r="O19">
-        <v>1.06052093508772</v>
+        <v>1.124626363333333</v>
       </c>
       <c r="P19">
-        <v>1.023747125789474</v>
+        <v>1.04750995</v>
       </c>
       <c r="Q19">
-        <v>1.023747125789474</v>
+        <v>1.04750995</v>
       </c>
       <c r="R19">
-        <v>1.009733968421053</v>
+        <v>1.0170696025</v>
       </c>
       <c r="S19">
-        <v>1.009733968421053</v>
+        <v>1.0170696025</v>
       </c>
       <c r="T19">
-        <v>1.002626559122807</v>
+        <v>1.006820886666667</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1698,58 +1704,58 @@
         <v>18</v>
       </c>
       <c r="C20">
-        <v>0.973720025263158</v>
+        <v>0.9699554873972599</v>
       </c>
       <c r="D20">
-        <v>1.008404903684211</v>
+        <v>1.00954316520548</v>
       </c>
       <c r="E20">
-        <v>1.003267138421053</v>
+        <v>1.003853444520548</v>
       </c>
       <c r="F20">
-        <v>0.973720025263158</v>
+        <v>0.9699554873972599</v>
       </c>
       <c r="G20">
-        <v>1.023391712631579</v>
+        <v>1.026532212465753</v>
       </c>
       <c r="H20">
-        <v>0.9843569942105262</v>
+        <v>0.9821587600000001</v>
       </c>
       <c r="I20">
-        <v>1.003267138421053</v>
+        <v>1.003853444520548</v>
       </c>
       <c r="J20">
-        <v>1.006907015789474</v>
+        <v>1.007884358356164</v>
       </c>
       <c r="K20">
-        <v>1.003267138421053</v>
+        <v>1.003853444520548</v>
       </c>
       <c r="L20">
-        <v>1.008404903684211</v>
+        <v>1.00954316520548</v>
       </c>
       <c r="M20">
-        <v>0.9910624644736843</v>
+        <v>0.9897493263013697</v>
       </c>
       <c r="N20">
-        <v>0.9910624644736843</v>
+        <v>0.9897493263013697</v>
       </c>
       <c r="O20">
-        <v>0.9888273077192983</v>
+        <v>0.9872191375342464</v>
       </c>
       <c r="P20">
-        <v>0.995130689122807</v>
+        <v>0.9944506990410957</v>
       </c>
       <c r="Q20">
-        <v>0.995130689122807</v>
+        <v>0.9944506990410957</v>
       </c>
       <c r="R20">
-        <v>0.9971648014473684</v>
+        <v>0.9968013854109588</v>
       </c>
       <c r="S20">
-        <v>0.9971648014473684</v>
+        <v>0.9968013854109588</v>
       </c>
       <c r="T20">
-        <v>1.000007965</v>
+        <v>0.9999879046575342</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1760,58 +1766,58 @@
         <v>19</v>
       </c>
       <c r="C21">
-        <v>1.277954329490422</v>
+        <v>1.140071708421053</v>
       </c>
       <c r="D21">
-        <v>0.9320461621327375</v>
+        <v>0.9634751726315791</v>
       </c>
       <c r="E21">
-        <v>0.9277488733131457</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="F21">
-        <v>1.277954329490422</v>
+        <v>1.140071708421053</v>
       </c>
       <c r="G21">
-        <v>0.8196082955855434</v>
+        <v>0.9017967668421052</v>
       </c>
       <c r="H21">
-        <v>1.151880390641586</v>
+        <v>1.078015924210526</v>
       </c>
       <c r="I21">
-        <v>0.9277488733131457</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="J21">
-        <v>0.9307933079817121</v>
+        <v>0.9647052863157896</v>
       </c>
       <c r="K21">
-        <v>0.9277488733131457</v>
+        <v>0.9676944963157896</v>
       </c>
       <c r="L21">
-        <v>0.9320461621327375</v>
+        <v>0.9634751726315791</v>
       </c>
       <c r="M21">
-        <v>1.10500024581158</v>
+        <v>1.051773440526316</v>
       </c>
       <c r="N21">
-        <v>1.10500024581158</v>
+        <v>1.051773440526316</v>
       </c>
       <c r="O21">
-        <v>1.120626960754915</v>
+        <v>1.06052093508772</v>
       </c>
       <c r="P21">
-        <v>1.045916454978769</v>
+        <v>1.023747125789474</v>
       </c>
       <c r="Q21">
-        <v>1.045916454978769</v>
+        <v>1.023747125789474</v>
       </c>
       <c r="R21">
-        <v>1.016374559562363</v>
+        <v>1.009733968421053</v>
       </c>
       <c r="S21">
-        <v>1.016374559562363</v>
+        <v>1.009733968421053</v>
       </c>
       <c r="T21">
-        <v>1.006671893190858</v>
+        <v>1.002626559122807</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1822,58 +1828,58 @@
         <v>20</v>
       </c>
       <c r="C22">
-        <v>1.072680463717056</v>
+        <v>0.973720025263158</v>
       </c>
       <c r="D22">
-        <v>0.9811661573293712</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="E22">
-        <v>0.9830245918534591</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="F22">
-        <v>1.072680463717056</v>
+        <v>0.973720025263158</v>
       </c>
       <c r="G22">
-        <v>0.9494224432153225</v>
+        <v>1.023391712631579</v>
       </c>
       <c r="H22">
-        <v>1.040404348898871</v>
+        <v>0.9843569942105262</v>
       </c>
       <c r="I22">
-        <v>0.9830245918534591</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="J22">
-        <v>0.9817079847949673</v>
+        <v>1.006907015789474</v>
       </c>
       <c r="K22">
-        <v>0.9830245918534591</v>
+        <v>1.003267138421053</v>
       </c>
       <c r="L22">
-        <v>0.9811661573293712</v>
+        <v>1.008404903684211</v>
       </c>
       <c r="M22">
-        <v>1.026923310523214</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="N22">
-        <v>1.026923310523214</v>
+        <v>0.9910624644736843</v>
       </c>
       <c r="O22">
-        <v>1.031416989981766</v>
+        <v>0.9888273077192983</v>
       </c>
       <c r="P22">
-        <v>1.012290404299962</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="Q22">
-        <v>1.012290404299962</v>
+        <v>0.995130689122807</v>
       </c>
       <c r="R22">
-        <v>1.004973951188336</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="S22">
-        <v>1.004973951188336</v>
+        <v>0.9971648014473684</v>
       </c>
       <c r="T22">
-        <v>1.001400998301508</v>
+        <v>1.000007965</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1884,58 +1890,58 @@
         <v>21</v>
       </c>
       <c r="C23">
-        <v>0.9973719629308202</v>
+        <v>1.277954329490422</v>
       </c>
       <c r="D23">
-        <v>1.000865077468418</v>
+        <v>0.9320461621327375</v>
       </c>
       <c r="E23">
-        <v>1.000282481962374</v>
+        <v>0.9277488733131457</v>
       </c>
       <c r="F23">
-        <v>0.9973719629308202</v>
+        <v>1.277954329490422</v>
       </c>
       <c r="G23">
-        <v>1.002417857854792</v>
+        <v>0.8196082955855434</v>
       </c>
       <c r="H23">
-        <v>0.9984197460422126</v>
+        <v>1.151880390641586</v>
       </c>
       <c r="I23">
-        <v>1.000282481962374</v>
+        <v>0.9277488733131457</v>
       </c>
       <c r="J23">
-        <v>1.00069522627891</v>
+        <v>0.9307933079817121</v>
       </c>
       <c r="K23">
-        <v>1.000282481962374</v>
+        <v>0.9277488733131457</v>
       </c>
       <c r="L23">
-        <v>1.000865077468418</v>
+        <v>0.9320461621327375</v>
       </c>
       <c r="M23">
-        <v>0.9991185201996193</v>
+        <v>1.10500024581158</v>
       </c>
       <c r="N23">
-        <v>0.9991185201996193</v>
+        <v>1.10500024581158</v>
       </c>
       <c r="O23">
-        <v>0.9988855954804837</v>
+        <v>1.120626960754915</v>
       </c>
       <c r="P23">
-        <v>0.999506507453871</v>
+        <v>1.045916454978769</v>
       </c>
       <c r="Q23">
-        <v>0.999506507453871</v>
+        <v>1.045916454978769</v>
       </c>
       <c r="R23">
-        <v>0.9997005010809968</v>
+        <v>1.016374559562363</v>
       </c>
       <c r="S23">
-        <v>0.9997005010809968</v>
+        <v>1.016374559562363</v>
       </c>
       <c r="T23">
-        <v>1.000008725422921</v>
+        <v>1.006671893190858</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1946,58 +1952,58 @@
         <v>22</v>
       </c>
       <c r="C24">
-        <v>0.9990817833146899</v>
+        <v>1.072680463717056</v>
       </c>
       <c r="D24">
-        <v>1.000129187227138</v>
+        <v>0.9811661573293712</v>
       </c>
       <c r="E24">
-        <v>1.000410226801606</v>
+        <v>0.9830245918534591</v>
       </c>
       <c r="F24">
-        <v>0.9990817833146899</v>
+        <v>1.072680463717056</v>
       </c>
       <c r="G24">
-        <v>1.000290957719287</v>
+        <v>0.9494224432153225</v>
       </c>
       <c r="H24">
-        <v>0.9995600236539687</v>
+        <v>1.040404348898871</v>
       </c>
       <c r="I24">
-        <v>1.000410226801606</v>
+        <v>0.9830245918534591</v>
       </c>
       <c r="J24">
-        <v>1.000211121594492</v>
+        <v>0.9817079847949673</v>
       </c>
       <c r="K24">
-        <v>1.000410226801606</v>
+        <v>0.9830245918534591</v>
       </c>
       <c r="L24">
-        <v>1.000129187227138</v>
+        <v>0.9811661573293712</v>
       </c>
       <c r="M24">
-        <v>0.9996054852709138</v>
+        <v>1.026923310523214</v>
       </c>
       <c r="N24">
-        <v>0.9996054852709138</v>
+        <v>1.026923310523214</v>
       </c>
       <c r="O24">
-        <v>0.9995903313985988</v>
+        <v>1.031416989981766</v>
       </c>
       <c r="P24">
-        <v>0.9998737324478112</v>
+        <v>1.012290404299962</v>
       </c>
       <c r="Q24">
-        <v>0.9998737324478112</v>
+        <v>1.012290404299962</v>
       </c>
       <c r="R24">
-        <v>1.00000785603626</v>
+        <v>1.004973951188336</v>
       </c>
       <c r="S24">
-        <v>1.00000785603626</v>
+        <v>1.004973951188336</v>
       </c>
       <c r="T24">
-        <v>0.99994721671853</v>
+        <v>1.001400998301508</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -2008,58 +2014,58 @@
         <v>23</v>
       </c>
       <c r="C25">
-        <v>0.7894649163113109</v>
+        <v>0.9973719629308202</v>
       </c>
       <c r="D25">
-        <v>1.056604045948</v>
+        <v>1.000865077468418</v>
       </c>
       <c r="E25">
-        <v>1.04548728095121</v>
+        <v>1.000282481962374</v>
       </c>
       <c r="F25">
-        <v>0.7894649163113109</v>
+        <v>0.9973719629308202</v>
       </c>
       <c r="G25">
-        <v>1.153061593316328</v>
+        <v>1.002417857854792</v>
       </c>
       <c r="H25">
-        <v>0.8816329661722336</v>
+        <v>0.9984197460422126</v>
       </c>
       <c r="I25">
-        <v>1.04548728095121</v>
+        <v>1.000282481962374</v>
       </c>
       <c r="J25">
-        <v>1.053363000455561</v>
+        <v>1.00069522627891</v>
       </c>
       <c r="K25">
-        <v>1.04548728095121</v>
+        <v>1.000282481962374</v>
       </c>
       <c r="L25">
-        <v>1.056604045948</v>
+        <v>1.000865077468418</v>
       </c>
       <c r="M25">
-        <v>0.9230344811296556</v>
+        <v>0.9991185201996193</v>
       </c>
       <c r="N25">
-        <v>0.9230344811296556</v>
+        <v>0.9991185201996193</v>
       </c>
       <c r="O25">
-        <v>0.9092339761438483</v>
+        <v>0.9988855954804837</v>
       </c>
       <c r="P25">
-        <v>0.9638520810701738</v>
+        <v>0.999506507453871</v>
       </c>
       <c r="Q25">
-        <v>0.9638520810701737</v>
+        <v>0.999506507453871</v>
       </c>
       <c r="R25">
-        <v>0.9842608810404327</v>
+        <v>0.9997005010809968</v>
       </c>
       <c r="S25">
-        <v>0.9842608810404327</v>
+        <v>0.9997005010809968</v>
       </c>
       <c r="T25">
-        <v>0.9966023005257739</v>
+        <v>1.000008725422921</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2070,58 +2076,58 @@
         <v>24</v>
       </c>
       <c r="C26">
-        <v>0.9398945720535595</v>
+        <v>0.9990817833146899</v>
       </c>
       <c r="D26">
-        <v>1.013362453267904</v>
+        <v>1.000129187227138</v>
       </c>
       <c r="E26">
-        <v>1.018021394410658</v>
+        <v>1.000410226801606</v>
       </c>
       <c r="F26">
-        <v>0.9398945720535595</v>
+        <v>0.9990817833146899</v>
       </c>
       <c r="G26">
-        <v>1.034745780519005</v>
+        <v>1.000290957719287</v>
       </c>
       <c r="H26">
-        <v>0.9680202245104418</v>
+        <v>0.9995600236539687</v>
       </c>
       <c r="I26">
-        <v>1.018021394410658</v>
+        <v>1.000410226801606</v>
       </c>
       <c r="J26">
-        <v>1.01472075290998</v>
+        <v>1.000211121594492</v>
       </c>
       <c r="K26">
-        <v>1.018021394410658</v>
+        <v>1.000410226801606</v>
       </c>
       <c r="L26">
-        <v>1.013362453267904</v>
+        <v>1.000129187227138</v>
       </c>
       <c r="M26">
-        <v>0.9766285126607315</v>
+        <v>0.9996054852709138</v>
       </c>
       <c r="N26">
-        <v>0.9766285126607315</v>
+        <v>0.9996054852709138</v>
       </c>
       <c r="O26">
-        <v>0.9737590832773017</v>
+        <v>0.9995903313985988</v>
       </c>
       <c r="P26">
-        <v>0.9904261399107072</v>
+        <v>0.9998737324478112</v>
       </c>
       <c r="Q26">
-        <v>0.9904261399107072</v>
+        <v>0.9998737324478112</v>
       </c>
       <c r="R26">
-        <v>0.9973249535356949</v>
+        <v>1.00000785603626</v>
       </c>
       <c r="S26">
-        <v>0.9973249535356949</v>
+        <v>1.00000785603626</v>
       </c>
       <c r="T26">
-        <v>0.9981275296119246</v>
+        <v>0.99994721671853</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2132,58 +2138,58 @@
         <v>25</v>
       </c>
       <c r="C27">
-        <v>0.9940048727552425</v>
+        <v>0.7894649163113109</v>
       </c>
       <c r="D27">
-        <v>1.001645029790329</v>
+        <v>1.056604045948</v>
       </c>
       <c r="E27">
-        <v>1.001235552300847</v>
+        <v>1.04548728095121</v>
       </c>
       <c r="F27">
-        <v>0.9940048727552425</v>
+        <v>0.7894649163113109</v>
       </c>
       <c r="G27">
-        <v>1.004464756287293</v>
+        <v>1.153061593316328</v>
       </c>
       <c r="H27">
-        <v>0.9966079059605989</v>
+        <v>0.8816329661722336</v>
       </c>
       <c r="I27">
-        <v>1.001235552300847</v>
+        <v>1.04548728095121</v>
       </c>
       <c r="J27">
-        <v>1.001525640553184</v>
+        <v>1.053363000455561</v>
       </c>
       <c r="K27">
-        <v>1.001235552300847</v>
+        <v>1.04548728095121</v>
       </c>
       <c r="L27">
-        <v>1.001645029790329</v>
+        <v>1.056604045948</v>
       </c>
       <c r="M27">
-        <v>0.9978249512727855</v>
+        <v>0.9230344811296556</v>
       </c>
       <c r="N27">
-        <v>0.9978249512727855</v>
+        <v>0.9230344811296556</v>
       </c>
       <c r="O27">
-        <v>0.9974192695020566</v>
+        <v>0.9092339761438483</v>
       </c>
       <c r="P27">
-        <v>0.9989618182821394</v>
+        <v>0.9638520810701738</v>
       </c>
       <c r="Q27">
-        <v>0.9989618182821394</v>
+        <v>0.9638520810701737</v>
       </c>
       <c r="R27">
-        <v>0.9995302517868163</v>
+        <v>0.9842608810404327</v>
       </c>
       <c r="S27">
-        <v>0.9995302517868163</v>
+        <v>0.9842608810404327</v>
       </c>
       <c r="T27">
-        <v>0.9999139596079157</v>
+        <v>0.9966023005257739</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2194,58 +2200,58 @@
         <v>26</v>
       </c>
       <c r="C28">
-        <v>1.007150191367457</v>
+        <v>0.9398945720535595</v>
       </c>
       <c r="D28">
-        <v>0.9989066269410791</v>
+        <v>1.013362453267904</v>
       </c>
       <c r="E28">
-        <v>0.9969629268849463</v>
+        <v>1.018021394410658</v>
       </c>
       <c r="F28">
-        <v>1.007150191367457</v>
+        <v>0.9398945720535595</v>
       </c>
       <c r="G28">
-        <v>0.9974545780919949</v>
+        <v>1.034745780519005</v>
       </c>
       <c r="H28">
-        <v>1.003482775059754</v>
+        <v>0.9680202245104418</v>
       </c>
       <c r="I28">
-        <v>0.9969629268849463</v>
+        <v>1.018021394410658</v>
       </c>
       <c r="J28">
-        <v>0.9983399589671734</v>
+        <v>1.01472075290998</v>
       </c>
       <c r="K28">
-        <v>0.9969629268849463</v>
+        <v>1.018021394410658</v>
       </c>
       <c r="L28">
-        <v>0.9989066269410791</v>
+        <v>1.013362453267904</v>
       </c>
       <c r="M28">
-        <v>1.003028409154268</v>
+        <v>0.9766285126607315</v>
       </c>
       <c r="N28">
-        <v>1.003028409154268</v>
+        <v>0.9766285126607315</v>
       </c>
       <c r="O28">
-        <v>1.003179864456097</v>
+        <v>0.9737590832773017</v>
       </c>
       <c r="P28">
-        <v>1.001006581731161</v>
+        <v>0.9904261399107072</v>
       </c>
       <c r="Q28">
-        <v>1.001006581731161</v>
+        <v>0.9904261399107072</v>
       </c>
       <c r="R28">
-        <v>0.9999956680196072</v>
+        <v>0.9973249535356949</v>
       </c>
       <c r="S28">
-        <v>0.9999956680196072</v>
+        <v>0.9973249535356949</v>
       </c>
       <c r="T28">
-        <v>1.000382842885401</v>
+        <v>0.9981275296119246</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2256,57 +2262,181 @@
         <v>27</v>
       </c>
       <c r="C29">
+        <v>0.9940048727552425</v>
+      </c>
+      <c r="D29">
+        <v>1.001645029790329</v>
+      </c>
+      <c r="E29">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="F29">
+        <v>0.9940048727552425</v>
+      </c>
+      <c r="G29">
+        <v>1.004464756287293</v>
+      </c>
+      <c r="H29">
+        <v>0.9966079059605989</v>
+      </c>
+      <c r="I29">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="J29">
+        <v>1.001525640553184</v>
+      </c>
+      <c r="K29">
+        <v>1.001235552300847</v>
+      </c>
+      <c r="L29">
+        <v>1.001645029790329</v>
+      </c>
+      <c r="M29">
+        <v>0.9978249512727855</v>
+      </c>
+      <c r="N29">
+        <v>0.9978249512727855</v>
+      </c>
+      <c r="O29">
+        <v>0.9974192695020566</v>
+      </c>
+      <c r="P29">
+        <v>0.9989618182821394</v>
+      </c>
+      <c r="Q29">
+        <v>0.9989618182821394</v>
+      </c>
+      <c r="R29">
+        <v>0.9995302517868163</v>
+      </c>
+      <c r="S29">
+        <v>0.9995302517868163</v>
+      </c>
+      <c r="T29">
+        <v>0.9999139596079157</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30">
+        <v>1.007150191367457</v>
+      </c>
+      <c r="D30">
+        <v>0.9989066269410791</v>
+      </c>
+      <c r="E30">
+        <v>0.9969629268849463</v>
+      </c>
+      <c r="F30">
+        <v>1.007150191367457</v>
+      </c>
+      <c r="G30">
+        <v>0.9974545780919949</v>
+      </c>
+      <c r="H30">
+        <v>1.003482775059754</v>
+      </c>
+      <c r="I30">
+        <v>0.9969629268849463</v>
+      </c>
+      <c r="J30">
+        <v>0.9983399589671734</v>
+      </c>
+      <c r="K30">
+        <v>0.9969629268849463</v>
+      </c>
+      <c r="L30">
+        <v>0.9989066269410791</v>
+      </c>
+      <c r="M30">
+        <v>1.003028409154268</v>
+      </c>
+      <c r="N30">
+        <v>1.003028409154268</v>
+      </c>
+      <c r="O30">
+        <v>1.003179864456097</v>
+      </c>
+      <c r="P30">
+        <v>1.001006581731161</v>
+      </c>
+      <c r="Q30">
+        <v>1.001006581731161</v>
+      </c>
+      <c r="R30">
+        <v>0.9999956680196072</v>
+      </c>
+      <c r="S30">
+        <v>0.9999956680196072</v>
+      </c>
+      <c r="T30">
+        <v>1.000382842885401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31">
         <v>1.028791806092115</v>
       </c>
-      <c r="D29">
+      <c r="D31">
         <v>0.9940616775728298</v>
       </c>
-      <c r="E29">
+      <c r="E31">
         <v>0.9905347163257885</v>
       </c>
-      <c r="F29">
+      <c r="F31">
         <v>1.028791806092115</v>
       </c>
-      <c r="G29">
+      <c r="G31">
         <v>0.9848362686572451</v>
       </c>
-      <c r="H29">
+      <c r="H31">
         <v>1.015019244271744</v>
       </c>
-      <c r="I29">
+      <c r="I31">
         <v>0.9905347163257885</v>
       </c>
-      <c r="J29">
+      <c r="J31">
         <v>0.9930334237115614</v>
       </c>
-      <c r="K29">
+      <c r="K31">
         <v>0.9905347163257885</v>
       </c>
-      <c r="L29">
+      <c r="L31">
         <v>0.9940616775728298</v>
       </c>
-      <c r="M29">
+      <c r="M31">
         <v>1.011426741832472</v>
       </c>
-      <c r="N29">
+      <c r="N31">
         <v>1.011426741832472</v>
       </c>
-      <c r="O29">
+      <c r="O31">
         <v>1.012624242645563</v>
       </c>
-      <c r="P29">
+      <c r="P31">
         <v>1.004462733330244</v>
       </c>
-      <c r="Q29">
+      <c r="Q31">
         <v>1.004462733330244</v>
       </c>
-      <c r="R29">
+      <c r="R31">
         <v>1.00098072907913</v>
       </c>
-      <c r="S29">
+      <c r="S31">
         <v>1.00098072907913</v>
       </c>
-      <c r="T29">
+      <c r="T31">
         <v>1.001046189438547</v>
       </c>
     </row>
